--- a/head_Data_Variable.xlsx
+++ b/head_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>246.3988037109375</v>
+        <v>307.4975280761719</v>
       </c>
       <c r="B2" t="n">
-        <v>250.2768249511719</v>
+        <v>311.8878173828125</v>
       </c>
       <c r="C2" t="n">
-        <v>253.8719787597656</v>
+        <v>317.2427368164062</v>
       </c>
       <c r="D2" t="n">
-        <v>258.6310424804688</v>
+        <v>322.6215209960938</v>
       </c>
       <c r="E2" t="n">
-        <v>265.0845336914062</v>
+        <v>330.7870788574219</v>
       </c>
       <c r="F2" t="n">
-        <v>272.4199523925781</v>
+        <v>341.7334594726562</v>
       </c>
       <c r="G2" t="n">
-        <v>278.8557434082031</v>
+        <v>353.6660766601562</v>
       </c>
       <c r="H2" t="n">
-        <v>284.6391296386719</v>
+        <v>364.9164428710938</v>
       </c>
       <c r="I2" t="n">
-        <v>291.2682189941406</v>
+        <v>375.9013366699219</v>
       </c>
       <c r="J2" t="n">
-        <v>298.467529296875</v>
+        <v>386.269287109375</v>
       </c>
       <c r="K2" t="n">
-        <v>305.3710021972656</v>
+        <v>396.61962890625</v>
       </c>
       <c r="L2" t="n">
-        <v>312.0234375</v>
+        <v>404.5818481445312</v>
       </c>
       <c r="M2" t="n">
-        <v>317.8888854980469</v>
+        <v>435.0167846679688</v>
       </c>
       <c r="N2" t="n">
-        <v>321.1980895996094</v>
+        <v>437.741455078125</v>
       </c>
       <c r="O2" t="n">
-        <v>324.9309692382812</v>
+        <v>441.1669311523438</v>
       </c>
       <c r="P2" t="n">
-        <v>328.8640747070312</v>
+        <v>439.7420654296875</v>
       </c>
       <c r="Q2" t="n">
-        <v>332.9479675292969</v>
+        <v>438.8766784667969</v>
       </c>
       <c r="R2" t="n">
-        <v>335.4949951171875</v>
+        <v>437.8150024414062</v>
       </c>
       <c r="S2" t="n">
-        <v>336.8435668945312</v>
+        <v>435.774169921875</v>
       </c>
       <c r="T2" t="n">
-        <v>337.154296875</v>
+        <v>432.7844543457031</v>
       </c>
       <c r="U2" t="n">
-        <v>337.0541076660156</v>
+        <v>428.1957397460938</v>
       </c>
       <c r="V2" t="n">
-        <v>336.8519287109375</v>
+        <v>422.6086120605469</v>
       </c>
       <c r="W2" t="n">
-        <v>336.5503540039062</v>
+        <v>415.111328125</v>
       </c>
       <c r="X2" t="n">
-        <v>336.188720703125</v>
+        <v>410.0565185546875</v>
       </c>
       <c r="Y2" t="n">
-        <v>335.787353515625</v>
+        <v>405.9754943847656</v>
       </c>
       <c r="Z2" t="n">
-        <v>334.7907104492188</v>
+        <v>402.8152160644531</v>
       </c>
       <c r="AA2" t="n">
-        <v>333.5665283203125</v>
+        <v>399.1654663085938</v>
       </c>
       <c r="AB2" t="n">
-        <v>332.0895385742188</v>
+        <v>395.03173828125</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.3006591796875</v>
+        <v>391.3048095703125</v>
       </c>
       <c r="AD2" t="n">
-        <v>329.123779296875</v>
+        <v>387.603515625</v>
       </c>
       <c r="AE2" t="n">
-        <v>328.3883056640625</v>
+        <v>385.038818359375</v>
       </c>
       <c r="AF2" t="n">
-        <v>327.9325866699219</v>
+        <v>382.3009948730469</v>
       </c>
       <c r="AG2" t="n">
-        <v>327.6874084472656</v>
+        <v>379.8145141601562</v>
       </c>
       <c r="AH2" t="n">
-        <v>327.4839477539062</v>
+        <v>377.5800170898438</v>
       </c>
       <c r="AI2" t="n">
-        <v>327.3141174316406</v>
+        <v>375.7402954101562</v>
       </c>
       <c r="AJ2" t="n">
-        <v>327.2606811523438</v>
+        <v>374.7796325683594</v>
       </c>
       <c r="AK2" t="n">
-        <v>327.2966003417969</v>
+        <v>373.384765625</v>
       </c>
       <c r="AL2" t="n">
-        <v>328.3585205078125</v>
+        <v>371.4453735351562</v>
       </c>
       <c r="AM2" t="n">
-        <v>329.43701171875</v>
+        <v>368.8441772460938</v>
       </c>
       <c r="AN2" t="n">
-        <v>330.7008056640625</v>
+        <v>367.40283203125</v>
       </c>
       <c r="AO2" t="n">
-        <v>333.1014709472656</v>
+        <v>366.6569519042969</v>
       </c>
       <c r="AP2" t="n">
-        <v>334.3773803710938</v>
+        <v>365.7648315429688</v>
       </c>
       <c r="AQ2" t="n">
-        <v>335.3854064941406</v>
+        <v>364.5943603515625</v>
       </c>
       <c r="AR2" t="n">
-        <v>336.6638793945312</v>
+        <v>363.2337036132812</v>
       </c>
       <c r="AS2" t="n">
-        <v>338.3660583496094</v>
+        <v>362.3683471679688</v>
       </c>
       <c r="AT2" t="n">
-        <v>339.6990356445312</v>
+        <v>361.376953125</v>
       </c>
       <c r="AU2" t="n">
-        <v>340.7957763671875</v>
+        <v>360.871826171875</v>
       </c>
       <c r="AV2" t="n">
-        <v>341.4302368164062</v>
+        <v>360.6477661132812</v>
       </c>
       <c r="AW2" t="n">
-        <v>341.772216796875</v>
+        <v>360.7473449707031</v>
       </c>
       <c r="AX2" t="n">
-        <v>341.6448364257812</v>
+        <v>360.8800964355469</v>
       </c>
       <c r="AY2" t="n">
-        <v>341.440185546875</v>
+        <v>361.0083618164062</v>
       </c>
       <c r="AZ2" t="n">
-        <v>341.26953125</v>
+        <v>361.0314636230469</v>
       </c>
       <c r="BA2" t="n">
-        <v>341.1499633789062</v>
+        <v>361.1670532226562</v>
       </c>
       <c r="BB2" t="n">
-        <v>341.0723571777344</v>
+        <v>361.2916564941406</v>
       </c>
       <c r="BC2" t="n">
-        <v>339.9568176269531</v>
+        <v>361.5005187988281</v>
       </c>
       <c r="BD2" t="n">
-        <v>338.3789672851562</v>
+        <v>361.43115234375</v>
       </c>
       <c r="BE2" t="n">
-        <v>336.7003173828125</v>
+        <v>361.31982421875</v>
       </c>
       <c r="BF2" t="n">
-        <v>335.6742858886719</v>
+        <v>361.102783203125</v>
       </c>
       <c r="BG2" t="n">
-        <v>334.6084289550781</v>
+        <v>360.8109130859375</v>
       </c>
       <c r="BH2" t="n">
-        <v>333.0491943359375</v>
+        <v>359.881591796875</v>
       </c>
       <c r="BI2" t="n">
-        <v>331.0377502441406</v>
+        <v>357.7406616210938</v>
       </c>
       <c r="BJ2" t="n">
-        <v>329.7424011230469</v>
+        <v>355.189453125</v>
       </c>
       <c r="BK2" t="n">
-        <v>328.8575439453125</v>
+        <v>351.4019165039062</v>
       </c>
       <c r="BL2" t="n">
-        <v>327.5829467773438</v>
+        <v>347.43359375</v>
       </c>
       <c r="BM2" t="n">
-        <v>326.1169128417969</v>
+        <v>343.9456787109375</v>
       </c>
       <c r="BN2" t="n">
-        <v>325.1143188476562</v>
+        <v>340.9104919433594</v>
       </c>
       <c r="BO2" t="n">
-        <v>324.5599670410156</v>
+        <v>335.147216796875</v>
       </c>
       <c r="BP2" t="n">
-        <v>324.2682189941406</v>
+        <v>331.8641967773438</v>
       </c>
       <c r="BQ2" t="n">
-        <v>324.1256713867188</v>
+        <v>328.58544921875</v>
       </c>
       <c r="BR2" t="n">
-        <v>323.9952087402344</v>
+        <v>326.0320434570312</v>
       </c>
       <c r="BS2" t="n">
-        <v>323.8781127929688</v>
+        <v>324.0420227050781</v>
       </c>
       <c r="BT2" t="n">
-        <v>323.5814819335938</v>
+        <v>322.2296752929688</v>
       </c>
       <c r="BU2" t="n">
-        <v>322.8271484375</v>
+        <v>321.1174011230469</v>
       </c>
       <c r="BV2" t="n">
-        <v>322.3370361328125</v>
+        <v>320.0947570800781</v>
       </c>
       <c r="BW2" t="n">
-        <v>322.0998840332031</v>
+        <v>319.5099487304688</v>
       </c>
       <c r="BX2" t="n">
-        <v>322.2903442382812</v>
+        <v>319.1018981933594</v>
       </c>
       <c r="BY2" t="n">
-        <v>322.2990417480469</v>
+        <v>318.6898803710938</v>
       </c>
       <c r="BZ2" t="n">
-        <v>322.5595703125</v>
+        <v>318.6593017578125</v>
       </c>
       <c r="CA2" t="n">
-        <v>322.5301513671875</v>
+        <v>319.1111145019531</v>
       </c>
       <c r="CB2" t="n">
-        <v>322.2484741210938</v>
+        <v>320.5246276855469</v>
       </c>
       <c r="CC2" t="n">
-        <v>322.1224365234375</v>
+        <v>323.4183349609375</v>
       </c>
       <c r="CD2" t="n">
-        <v>322.4368896484375</v>
+        <v>326.5653076171875</v>
       </c>
       <c r="CE2" t="n">
-        <v>323.3306579589844</v>
+        <v>334.2808532714844</v>
       </c>
       <c r="CF2" t="n">
-        <v>324.6102294921875</v>
+        <v>337.9176635742188</v>
       </c>
       <c r="CG2" t="n">
-        <v>325.5137329101562</v>
+        <v>340.82373046875</v>
       </c>
       <c r="CH2" t="n">
-        <v>325.5657958984375</v>
+        <v>346.2288818359375</v>
       </c>
       <c r="CI2" t="n">
-        <v>325.5193481445312</v>
+        <v>350.7552490234375</v>
       </c>
       <c r="CJ2" t="n">
-        <v>325.4801940917969</v>
+        <v>354.8918151855469</v>
       </c>
       <c r="CK2" t="n">
-        <v>325.4453125</v>
+        <v>357.7242736816406</v>
       </c>
       <c r="CL2" t="n">
-        <v>325.1242370605469</v>
+        <v>360.2715759277344</v>
       </c>
       <c r="CM2" t="n">
-        <v>324.656494140625</v>
+        <v>363.0389404296875</v>
       </c>
       <c r="CN2" t="n">
-        <v>323.7939147949219</v>
+        <v>367.5579223632812</v>
       </c>
       <c r="CO2" t="n">
-        <v>322.3036499023438</v>
+        <v>369.6924438476562</v>
       </c>
       <c r="CP2" t="n">
-        <v>321.0551452636719</v>
+        <v>372.0897827148438</v>
       </c>
       <c r="CQ2" t="n">
-        <v>320.3331909179688</v>
+        <v>373.6552429199219</v>
       </c>
       <c r="CR2" t="n">
-        <v>319.9318542480469</v>
+        <v>374.7706909179688</v>
       </c>
       <c r="CS2" t="n">
-        <v>319.6069946289062</v>
+        <v>375.4355163574219</v>
       </c>
       <c r="CT2" t="n">
-        <v>317.5582580566406</v>
+        <v>375.518798828125</v>
       </c>
       <c r="CU2" t="n">
-        <v>314.5364990234375</v>
+        <v>375.5203247070312</v>
       </c>
       <c r="CV2" t="n">
-        <v>312.1959533691406</v>
+        <v>374.2117309570312</v>
       </c>
       <c r="CW2" t="n">
-        <v>309.6876220703125</v>
+        <v>372.1072387695312</v>
       </c>
       <c r="CX2" t="n">
-        <v>308.188232421875</v>
+        <v>367.2886657714844</v>
       </c>
       <c r="CY2" t="n">
-        <v>305.9148864746094</v>
+        <v>364.584228515625</v>
       </c>
       <c r="CZ2" t="n">
-        <v>305.6508178710938</v>
+        <v>359.3657836914062</v>
       </c>
       <c r="DA2" t="n">
-        <v>305.7659606933594</v>
+        <v>357.5391235351562</v>
       </c>
       <c r="DB2" t="n">
-        <v>304.5950317382812</v>
+        <v>355.2779541015625</v>
       </c>
       <c r="DC2" t="n">
-        <v>303.1727905273438</v>
+        <v>352.3778686523438</v>
       </c>
       <c r="DD2" t="n">
-        <v>302.20068359375</v>
+        <v>348.0023803710938</v>
       </c>
       <c r="DE2" t="n">
-        <v>301.1654357910156</v>
+        <v>338.9598999023438</v>
       </c>
       <c r="DF2" t="n">
-        <v>301.23095703125</v>
+        <v>333.3636169433594</v>
       </c>
       <c r="DG2" t="n">
-        <v>302.3676147460938</v>
+        <v>330.6677856445312</v>
       </c>
       <c r="DH2" t="n">
-        <v>305.8115234375</v>
+        <v>325.4141845703125</v>
       </c>
       <c r="DI2" t="n">
-        <v>314.3159484863281</v>
+        <v>323.0164184570312</v>
       </c>
       <c r="DJ2" t="n">
-        <v>300.7053527832031</v>
+        <v>319.4448547363281</v>
       </c>
       <c r="DK2" t="n">
-        <v>309.5519409179688</v>
+        <v>316.4761962890625</v>
       </c>
       <c r="DL2" t="n">
-        <v>306.8343811035156</v>
+        <v>314.2592468261719</v>
       </c>
       <c r="DM2" t="n">
-        <v>307.4345092773438</v>
+        <v>312.1710815429688</v>
       </c>
       <c r="DN2" t="n">
-        <v>309.2796020507812</v>
+        <v>310.5540466308594</v>
       </c>
       <c r="DO2" t="n">
-        <v>317.5373840332031</v>
+        <v>309.2956237792969</v>
       </c>
       <c r="DP2" t="n">
-        <v>322.0965270996094</v>
+        <v>308.8612670898438</v>
       </c>
       <c r="DQ2" t="n">
-        <v>324.7748107910156</v>
+        <v>308.7855224609375</v>
       </c>
       <c r="DR2" t="n">
-        <v>326.2283935546875</v>
+        <v>308.8177185058594</v>
       </c>
       <c r="DS2" t="n">
-        <v>329.8728637695312</v>
+        <v>308.8431396484375</v>
       </c>
       <c r="DT2" t="n">
-        <v>332.1785888671875</v>
+        <v>308.8633422851562</v>
       </c>
       <c r="DU2" t="n">
-        <v>336.7684631347656</v>
+        <v>309.0475769042969</v>
       </c>
       <c r="DV2" t="n">
-        <v>338.7297973632812</v>
+        <v>309.3206481933594</v>
       </c>
       <c r="DW2" t="n">
-        <v>341.7420043945312</v>
+        <v>312.670654296875</v>
       </c>
       <c r="DX2" t="n">
-        <v>343.3511657714844</v>
+        <v>316.8746032714844</v>
       </c>
       <c r="DY2" t="n">
-        <v>344.3945922851562</v>
+        <v>320.8523254394531</v>
       </c>
       <c r="DZ2" t="n">
-        <v>345.4195556640625</v>
+        <v>329.73095703125</v>
       </c>
       <c r="EA2" t="n">
-        <v>345.3991394042969</v>
+        <v>333.6029663085938</v>
       </c>
       <c r="EB2" t="n">
-        <v>345.222412109375</v>
+        <v>343.4993896484375</v>
       </c>
       <c r="EC2" t="n">
-        <v>345.1709289550781</v>
+        <v>350.6972045898438</v>
       </c>
       <c r="ED2" t="n">
-        <v>345.1193542480469</v>
+        <v>357.073974609375</v>
       </c>
       <c r="EE2" t="n">
-        <v>345.1050109863281</v>
+        <v>367.6404418945312</v>
       </c>
       <c r="EF2" t="n">
-        <v>345.092041015625</v>
+        <v>380.7162780761719</v>
       </c>
       <c r="EG2" t="n">
-        <v>344.1894836425781</v>
+        <v>395.2945556640625</v>
       </c>
       <c r="EH2" t="n">
-        <v>340.2776489257812</v>
+        <v>401.8485107421875</v>
       </c>
       <c r="EI2" t="n">
-        <v>338.5987548828125</v>
+        <v>412.7888488769531</v>
       </c>
       <c r="EJ2" t="n">
-        <v>336.2725219726562</v>
+        <v>416.3772277832031</v>
       </c>
       <c r="EK2" t="n">
-        <v>334.3631286621094</v>
+        <v>422.8671264648438</v>
       </c>
       <c r="EL2" t="n">
-        <v>328.57275390625</v>
+        <v>426.0667724609375</v>
       </c>
       <c r="EM2" t="n">
-        <v>321.9167785644531</v>
+        <v>431.2169799804688</v>
       </c>
       <c r="EN2" t="n">
-        <v>320.8170166015625</v>
+        <v>432.7850341796875</v>
       </c>
       <c r="EO2" t="n">
-        <v>321.2703247070312</v>
+        <v>435.9645385742188</v>
       </c>
       <c r="EP2" t="n">
-        <v>320.6773376464844</v>
+        <v>438.531494140625</v>
       </c>
       <c r="EQ2" t="n">
-        <v>320.0067443847656</v>
+        <v>443.0918884277344</v>
       </c>
       <c r="ER2" t="n">
-        <v>320.0982055664062</v>
+        <v>444.2103881835938</v>
       </c>
       <c r="ES2" t="n">
-        <v>319.6260986328125</v>
+        <v>445.1578369140625</v>
       </c>
       <c r="ET2" t="n">
-        <v>318.5990600585938</v>
+        <v>446.1147766113281</v>
       </c>
       <c r="EU2" t="n">
-        <v>317.6483154296875</v>
+        <v>447.3258056640625</v>
       </c>
       <c r="EV2" t="n">
-        <v>316.8122253417969</v>
+        <v>447.8707275390625</v>
       </c>
       <c r="EW2" t="n">
-        <v>316.2033996582031</v>
+        <v>448.7080078125</v>
       </c>
       <c r="EX2" t="n">
-        <v>315.9365844726562</v>
+        <v>449.8800354003906</v>
       </c>
       <c r="EY2" t="n">
-        <v>316.3838195800781</v>
+        <v>450.4538269042969</v>
       </c>
       <c r="EZ2" t="n">
-        <v>317.2013854980469</v>
+        <v>450.7966918945312</v>
       </c>
       <c r="FA2" t="n">
-        <v>321.0136108398438</v>
+        <v>451.2481079101562</v>
       </c>
       <c r="FB2" t="n">
-        <v>321.4986877441406</v>
+        <v>452.0580444335938</v>
       </c>
       <c r="FC2" t="n">
-        <v>321.8331298828125</v>
+        <v>452.211181640625</v>
       </c>
       <c r="FD2" t="n">
-        <v>321.8123779296875</v>
+        <v>450.4292602539062</v>
       </c>
       <c r="FE2" t="n">
-        <v>321.6929321289062</v>
+        <v>449.6123657226562</v>
       </c>
       <c r="FF2" t="n">
-        <v>321.5765686035156</v>
+        <v>448.857177734375</v>
       </c>
       <c r="FG2" t="n">
-        <v>321.4468994140625</v>
+        <v>447.4628295898438</v>
       </c>
       <c r="FH2" t="n">
-        <v>321.3968200683594</v>
+        <v>446.3287963867188</v>
       </c>
       <c r="FI2" t="n">
-        <v>321.3826293945312</v>
+        <v>444.23193359375</v>
       </c>
       <c r="FJ2" t="n">
-        <v>321.152099609375</v>
+        <v>443.1012268066406</v>
       </c>
       <c r="FK2" t="n">
-        <v>320.60400390625</v>
+        <v>441.3869934082031</v>
       </c>
       <c r="FL2" t="n">
-        <v>318.5459899902344</v>
+        <v>440.8201293945312</v>
       </c>
       <c r="FM2" t="n">
-        <v>317.6346740722656</v>
+        <v>439.8587646484375</v>
       </c>
       <c r="FN2" t="n">
-        <v>316.64892578125</v>
+        <v>438.9833374023438</v>
       </c>
       <c r="FO2" t="n">
-        <v>318.8070678710938</v>
+        <v>437.7720642089844</v>
       </c>
       <c r="FP2" t="n">
-        <v>311.0605773925781</v>
+        <v>433.8682556152344</v>
       </c>
       <c r="FQ2" t="n">
-        <v>309.4940490722656</v>
+        <v>428.9199829101562</v>
       </c>
       <c r="FR2" t="n">
-        <v>300.4644775390625</v>
+        <v>425.484619140625</v>
       </c>
       <c r="FS2" t="n">
-        <v>303.1412048339844</v>
+        <v>422.6983032226562</v>
       </c>
       <c r="FT2" t="n">
-        <v>305.8711242675781</v>
+        <v>416.9799499511719</v>
       </c>
       <c r="FU2" t="n">
-        <v>306.5947265625</v>
+        <v>412.9288330078125</v>
       </c>
       <c r="FV2" t="n">
-        <v>305.686767578125</v>
+        <v>405.8797607421875</v>
       </c>
       <c r="FW2" t="n">
-        <v>303.4993896484375</v>
+        <v>399.2938842773438</v>
       </c>
       <c r="FX2" t="n">
-        <v>302.9395141601562</v>
+        <v>395.3135681152344</v>
       </c>
       <c r="FY2" t="n">
-        <v>302.2601928710938</v>
+        <v>392.9425354003906</v>
       </c>
       <c r="FZ2" t="n">
-        <v>301.3818664550781</v>
+        <v>388.511474609375</v>
       </c>
       <c r="GA2" t="n">
-        <v>301.2537841796875</v>
+        <v>387.1903686523438</v>
       </c>
       <c r="GB2" t="n">
-        <v>301.2514343261719</v>
+        <v>384.7847900390625</v>
       </c>
       <c r="GC2" t="n">
-        <v>301.3600158691406</v>
+        <v>384.1593017578125</v>
       </c>
       <c r="GD2" t="n">
-        <v>301.4733276367188</v>
+        <v>383.6222534179688</v>
       </c>
       <c r="GE2" t="n">
-        <v>302.0193481445312</v>
+        <v>383.77294921875</v>
       </c>
       <c r="GF2" t="n">
-        <v>302.3870544433594</v>
+        <v>385.9219055175781</v>
       </c>
       <c r="GG2" t="n">
-        <v>303.0023498535156</v>
+        <v>389.3173828125</v>
       </c>
       <c r="GH2" t="n">
-        <v>303.3527526855469</v>
+        <v>391.5465698242188</v>
       </c>
       <c r="GI2" t="n">
-        <v>305.3330993652344</v>
+        <v>391.0066223144531</v>
       </c>
       <c r="GJ2" t="n">
-        <v>307.1058349609375</v>
+        <v>388.1042785644531</v>
       </c>
       <c r="GK2" t="n">
-        <v>307.4658203125</v>
+        <v>386.2156982421875</v>
       </c>
       <c r="GL2" t="n">
-        <v>306.5037536621094</v>
+        <v>382.4004821777344</v>
       </c>
       <c r="GM2" t="n">
-        <v>305.63037109375</v>
+        <v>378.4190673828125</v>
       </c>
       <c r="GN2" t="n">
-        <v>304.3706359863281</v>
+        <v>375.5042724609375</v>
       </c>
       <c r="GO2" t="n">
-        <v>303.1614685058594</v>
+        <v>367.9425048828125</v>
       </c>
       <c r="GP2" t="n">
-        <v>302.4376831054688</v>
+        <v>361.0787353515625</v>
       </c>
       <c r="GQ2" t="n">
-        <v>301.9218444824219</v>
+        <v>352.7006225585938</v>
       </c>
       <c r="GR2" t="n">
-        <v>301.4251098632812</v>
+        <v>346.64404296875</v>
       </c>
       <c r="GS2" t="n">
-        <v>299.8929138183594</v>
+        <v>340.0008544921875</v>
       </c>
       <c r="GT2" t="n">
-        <v>299.2168273925781</v>
+        <v>337.5150146484375</v>
       </c>
       <c r="GU2" t="n">
-        <v>297.7559204101562</v>
+        <v>331.5675048828125</v>
       </c>
       <c r="GV2" t="n">
-        <v>295.3612365722656</v>
+        <v>328.1111145019531</v>
       </c>
       <c r="GW2" t="n">
-        <v>294.0086975097656</v>
+        <v>327.4243774414062</v>
       </c>
       <c r="GX2" t="n">
-        <v>293.0883483886719</v>
+        <v>325.7314453125</v>
       </c>
       <c r="GY2" t="n">
-        <v>292.6358947753906</v>
+        <v>323.5335693359375</v>
       </c>
       <c r="GZ2" t="n">
-        <v>292.030029296875</v>
+        <v>323.36376953125</v>
       </c>
       <c r="HA2" t="n">
-        <v>291.7676086425781</v>
+        <v>323.9275512695312</v>
       </c>
       <c r="HB2" t="n">
-        <v>293.5410766601562</v>
+        <v>324.6633911132812</v>
       </c>
       <c r="HC2" t="n">
-        <v>295.1509094238281</v>
+        <v>325.1197509765625</v>
       </c>
       <c r="HD2" t="n">
-        <v>296.5244750976562</v>
+        <v>325.3571166992188</v>
       </c>
       <c r="HE2" t="n">
-        <v>297.0940246582031</v>
+        <v>325.8412475585938</v>
       </c>
       <c r="HF2" t="n">
-        <v>296.8833312988281</v>
+        <v>327.4056701660156</v>
       </c>
       <c r="HG2" t="n">
-        <v>296.0731811523438</v>
+        <v>333.0651245117188</v>
       </c>
       <c r="HH2" t="n">
-        <v>294.1444702148438</v>
+        <v>334.7517700195312</v>
       </c>
       <c r="HI2" t="n">
-        <v>290.7108764648438</v>
+        <v>335.7164001464844</v>
       </c>
       <c r="HJ2" t="n">
-        <v>287.6382141113281</v>
+        <v>338.6952514648438</v>
       </c>
       <c r="HK2" t="n">
-        <v>283.3433227539062</v>
+        <v>346.1552429199219</v>
       </c>
       <c r="HL2" t="n">
-        <v>275.0997619628906</v>
+        <v>353.5028686523438</v>
       </c>
       <c r="HM2" t="n">
-        <v>267.0530090332031</v>
+        <v>361.0793762207031</v>
       </c>
       <c r="HN2" t="n">
-        <v>258.9114379882812</v>
+        <v>369.5752563476562</v>
       </c>
       <c r="HO2" t="n">
-        <v>254.0044250488281</v>
+        <v>384.7633361816406</v>
       </c>
       <c r="HP2" t="n">
-        <v>249.6448974609375</v>
+        <v>393.1453857421875</v>
       </c>
       <c r="HQ2" t="n">
-        <v>245.7997436523438</v>
+        <v>397.1787719726562</v>
       </c>
       <c r="HR2" t="n">
-        <v>241.84326171875</v>
+        <v>408.9955444335938</v>
       </c>
       <c r="HS2" t="n">
-        <v>238.3149108886719</v>
+        <v>415.5957336425781</v>
       </c>
       <c r="HT2" t="n">
-        <v>234.2320251464844</v>
+        <v>421.3746948242188</v>
       </c>
       <c r="HU2" t="n">
-        <v>230.000244140625</v>
+        <v>426.9909362792969</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>432.0999145507812</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>435.3511962890625</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>439.7686767578125</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>441.4945678710938</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>444.148681640625</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>445.749267578125</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>445.7562561035156</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>445.7998657226562</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>444.7457885742188</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>440.7317504882812</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>437.61865234375</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>433.3552551269531</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>427.6994323730469</v>
+      </c>
+      <c r="II2" t="n">
+        <v>419.6007690429688</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>412.3226928710938</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>399.984375</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>394.3769836425781</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>384.4529724121094</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>370.5963745117188</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>362.967041015625</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>358.9801635742188</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>347.3222045898438</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>339.1259155273438</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>335.7178344726562</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>327.5960693359375</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>323.1904907226562</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>321.7234497070312</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>321.1473999023438</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>319.6897277832031</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>319.6600952148438</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>320.2633056640625</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>322.5914916992188</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>325.1510009765625</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>328.5479431152344</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>333.6132202148438</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>342.20166015625</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>348.6602783203125</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>356.8399353027344</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>364.0247192382812</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>369.94287109375</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>374.3377685546875</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>380.5270080566406</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>387.9088745117188</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>390.7069702148438</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>395.71630859375</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>401.0125122070312</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>403.9588928222656</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>406.238037109375</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>408.4066162109375</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>410.0824279785156</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>411.1107788085938</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>412.3844909667969</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>413.183837890625</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>413.3671875</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>413.566650390625</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>413.9367980957031</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>414.2490844726562</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>414.5410766601562</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>414.8498840332031</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>414.9614868164062</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>414.9835815429688</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>414.8642578125</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>414.529052734375</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>414.4721069335938</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>414.3631591796875</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>414.3052673339844</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>414.2744445800781</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>414.2669372558594</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>414.2551879882812</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>414.24560546875</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>414.2421875</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>414.27001953125</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>414.3103637695312</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>414.4365234375</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>414.7779846191406</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>416.3873291015625</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>417.9631958007812</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>418.1255493164062</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>418.2001037597656</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>418.248046875</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>418.4099731445312</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>418.6027526855469</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>418.9590454101562</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>420.6220092773438</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>422.8551635742188</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>423.7845458984375</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>425.2648315429688</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>425.83447265625</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>425.3587646484375</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>426.6896057128906</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>427.6500854492188</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>431.273681640625</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>434.7226257324219</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>438.4418334960938</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>440.9580078125</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>442.6113891601562</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>444.5895080566406</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>447.3150634765625</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>453.2865905761719</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>458.9818725585938</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>463.61181640625</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>466.1985473632812</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>468.5739135742188</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>465.3749389648438</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>456.803955078125</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>450.6988525390625</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>446.0209655761719</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>437.0043334960938</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>423.1191711425781</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>407.9288024902344</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>391.5914916992188</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>372.3004455566406</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>345.7986145019531</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>317.1184387207031</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>299.8283996582031</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>284.5804748535156</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>285.3945922851562</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>288.31396484375</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>312.7766723632812</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>331.3255310058594</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>341.0583801269531</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>357.0884704589844</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>366.5552368164062</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>374.6211242675781</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>380.3334045410156</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>381.2562561035156</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>380.2536010742188</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>377.5094604492188</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>372.2687377929688</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>375.5376586914062</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>367.7225036621094</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>355.0726928710938</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>349.9219055175781</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>348.7569885253906</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>346.6259765625</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>346.4042358398438</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>346.410400390625</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>346.5701904296875</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>351.8442993164062</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>356.33544921875</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>358.6676025390625</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>360.7937316894531</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>361.5758972167969</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>361.9243774414062</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>362.5142822265625</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>362.6991271972656</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>362.9273071289062</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>363.2125549316406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>77.12379455566406</v>
+        <v>97.47073364257812</v>
       </c>
       <c r="B3" t="n">
-        <v>78.52555084228516</v>
+        <v>97.24702453613281</v>
       </c>
       <c r="C3" t="n">
-        <v>79.45702362060547</v>
+        <v>97.46070861816406</v>
       </c>
       <c r="D3" t="n">
-        <v>80.84423065185547</v>
+        <v>98.34130859375</v>
       </c>
       <c r="E3" t="n">
-        <v>83.50181579589844</v>
+        <v>100.5584411621094</v>
       </c>
       <c r="F3" t="n">
-        <v>87.16495513916016</v>
+        <v>102.8681335449219</v>
       </c>
       <c r="G3" t="n">
-        <v>91.84957885742188</v>
+        <v>105.6152038574219</v>
       </c>
       <c r="H3" t="n">
-        <v>99.64157104492188</v>
+        <v>108.5658569335938</v>
       </c>
       <c r="I3" t="n">
-        <v>106.9103393554688</v>
+        <v>110.8385696411133</v>
       </c>
       <c r="J3" t="n">
-        <v>114.5139312744141</v>
+        <v>112.7997436523438</v>
       </c>
       <c r="K3" t="n">
-        <v>122.1284332275391</v>
+        <v>113.9957962036133</v>
       </c>
       <c r="L3" t="n">
-        <v>128.4264221191406</v>
+        <v>114.4095153808594</v>
       </c>
       <c r="M3" t="n">
-        <v>133.2362976074219</v>
+        <v>115.5044174194336</v>
       </c>
       <c r="N3" t="n">
-        <v>137.1798248291016</v>
+        <v>113.3759231567383</v>
       </c>
       <c r="O3" t="n">
-        <v>135.6501007080078</v>
+        <v>122.4186553955078</v>
       </c>
       <c r="P3" t="n">
-        <v>131.7057495117188</v>
+        <v>121.8849868774414</v>
       </c>
       <c r="Q3" t="n">
-        <v>122.5418014526367</v>
+        <v>122.263801574707</v>
       </c>
       <c r="R3" t="n">
-        <v>117.3207778930664</v>
+        <v>123.4013824462891</v>
       </c>
       <c r="S3" t="n">
-        <v>116.9249572753906</v>
+        <v>125.8005981445312</v>
       </c>
       <c r="T3" t="n">
-        <v>119.5182342529297</v>
+        <v>127.6296920776367</v>
       </c>
       <c r="U3" t="n">
-        <v>123.5018463134766</v>
+        <v>129.6724700927734</v>
       </c>
       <c r="V3" t="n">
-        <v>129.0328979492188</v>
+        <v>134.2317504882812</v>
       </c>
       <c r="W3" t="n">
-        <v>134.3271942138672</v>
+        <v>138.3996429443359</v>
       </c>
       <c r="X3" t="n">
-        <v>138.8778991699219</v>
+        <v>142.2803497314453</v>
       </c>
       <c r="Y3" t="n">
-        <v>143.1005706787109</v>
+        <v>146.9847564697266</v>
       </c>
       <c r="Z3" t="n">
-        <v>146.9364776611328</v>
+        <v>150.9021759033203</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.7151794433594</v>
+        <v>153.2662811279297</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.6663055419922</v>
+        <v>156.117431640625</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.9819946289062</v>
+        <v>158.0292205810547</v>
       </c>
       <c r="AD3" t="n">
-        <v>157.4178161621094</v>
+        <v>159.9270629882812</v>
       </c>
       <c r="AE3" t="n">
-        <v>157.6161499023438</v>
+        <v>161.1277618408203</v>
       </c>
       <c r="AF3" t="n">
-        <v>155.7737731933594</v>
+        <v>161.1034088134766</v>
       </c>
       <c r="AG3" t="n">
-        <v>154.0159149169922</v>
+        <v>161.1212005615234</v>
       </c>
       <c r="AH3" t="n">
-        <v>153.3766021728516</v>
+        <v>160.0598449707031</v>
       </c>
       <c r="AI3" t="n">
-        <v>153.8406524658203</v>
+        <v>159.4976959228516</v>
       </c>
       <c r="AJ3" t="n">
-        <v>154.2446136474609</v>
+        <v>158.0113372802734</v>
       </c>
       <c r="AK3" t="n">
-        <v>155.14013671875</v>
+        <v>157.5169982910156</v>
       </c>
       <c r="AL3" t="n">
-        <v>157.9579925537109</v>
+        <v>157.5382843017578</v>
       </c>
       <c r="AM3" t="n">
-        <v>161.3633117675781</v>
+        <v>157.7077026367188</v>
       </c>
       <c r="AN3" t="n">
-        <v>163.8882141113281</v>
+        <v>157.7941436767578</v>
       </c>
       <c r="AO3" t="n">
-        <v>167.2601013183594</v>
+        <v>157.8811492919922</v>
       </c>
       <c r="AP3" t="n">
-        <v>169.4406890869141</v>
+        <v>157.9768981933594</v>
       </c>
       <c r="AQ3" t="n">
-        <v>171.6355590820312</v>
+        <v>158.0856170654297</v>
       </c>
       <c r="AR3" t="n">
-        <v>173.5915832519531</v>
+        <v>158.1696929931641</v>
       </c>
       <c r="AS3" t="n">
-        <v>175.0532379150391</v>
+        <v>158.2819061279297</v>
       </c>
       <c r="AT3" t="n">
-        <v>176.3904266357422</v>
+        <v>158.5187225341797</v>
       </c>
       <c r="AU3" t="n">
-        <v>177.3990631103516</v>
+        <v>159.5550079345703</v>
       </c>
       <c r="AV3" t="n">
-        <v>177.9831848144531</v>
+        <v>159.9616851806641</v>
       </c>
       <c r="AW3" t="n">
-        <v>178.2663726806641</v>
+        <v>159.0584716796875</v>
       </c>
       <c r="AX3" t="n">
-        <v>177.51025390625</v>
+        <v>158.3326568603516</v>
       </c>
       <c r="AY3" t="n">
-        <v>176.5750274658203</v>
+        <v>157.9396820068359</v>
       </c>
       <c r="AZ3" t="n">
-        <v>175.7797241210938</v>
+        <v>157.8663635253906</v>
       </c>
       <c r="BA3" t="n">
-        <v>175.6364898681641</v>
+        <v>157.7105865478516</v>
       </c>
       <c r="BB3" t="n">
-        <v>176.0825347900391</v>
+        <v>157.0711822509766</v>
       </c>
       <c r="BC3" t="n">
-        <v>176.9310455322266</v>
+        <v>155.8875579833984</v>
       </c>
       <c r="BD3" t="n">
-        <v>178.8876800537109</v>
+        <v>154.9111022949219</v>
       </c>
       <c r="BE3" t="n">
-        <v>180.8588104248047</v>
+        <v>154.1122894287109</v>
       </c>
       <c r="BF3" t="n">
-        <v>182.0335693359375</v>
+        <v>153.2498931884766</v>
       </c>
       <c r="BG3" t="n">
-        <v>184.1132507324219</v>
+        <v>151.8794403076172</v>
       </c>
       <c r="BH3" t="n">
-        <v>186.0486145019531</v>
+        <v>149.8550109863281</v>
       </c>
       <c r="BI3" t="n">
-        <v>187.3822784423828</v>
+        <v>147.7154846191406</v>
       </c>
       <c r="BJ3" t="n">
-        <v>188.4398956298828</v>
+        <v>145.7456512451172</v>
       </c>
       <c r="BK3" t="n">
-        <v>188.9625396728516</v>
+        <v>143.9360046386719</v>
       </c>
       <c r="BL3" t="n">
-        <v>189.1590118408203</v>
+        <v>142.5591430664062</v>
       </c>
       <c r="BM3" t="n">
-        <v>189.2007904052734</v>
+        <v>141.6771240234375</v>
       </c>
       <c r="BN3" t="n">
-        <v>188.8826446533203</v>
+        <v>141.1697692871094</v>
       </c>
       <c r="BO3" t="n">
-        <v>189.1827545166016</v>
+        <v>139.7059173583984</v>
       </c>
       <c r="BP3" t="n">
-        <v>189.0589294433594</v>
+        <v>138.4713134765625</v>
       </c>
       <c r="BQ3" t="n">
-        <v>188.1824951171875</v>
+        <v>136.8215484619141</v>
       </c>
       <c r="BR3" t="n">
-        <v>187.4217376708984</v>
+        <v>135.4466247558594</v>
       </c>
       <c r="BS3" t="n">
-        <v>187.1518096923828</v>
+        <v>134.3993835449219</v>
       </c>
       <c r="BT3" t="n">
-        <v>187.1804656982422</v>
+        <v>133.6082916259766</v>
       </c>
       <c r="BU3" t="n">
-        <v>188.2415771484375</v>
+        <v>133.0201568603516</v>
       </c>
       <c r="BV3" t="n">
-        <v>189.2507019042969</v>
+        <v>132.664794921875</v>
       </c>
       <c r="BW3" t="n">
-        <v>189.9305725097656</v>
+        <v>132.3343048095703</v>
       </c>
       <c r="BX3" t="n">
-        <v>189.4414367675781</v>
+        <v>131.9863128662109</v>
       </c>
       <c r="BY3" t="n">
-        <v>189.6663665771484</v>
+        <v>130.2394561767578</v>
       </c>
       <c r="BZ3" t="n">
-        <v>193.5559692382812</v>
+        <v>128.9450988769531</v>
       </c>
       <c r="CA3" t="n">
-        <v>196.4348297119141</v>
+        <v>128.3211059570312</v>
       </c>
       <c r="CB3" t="n">
-        <v>197.2080078125</v>
+        <v>128.6515808105469</v>
       </c>
       <c r="CC3" t="n">
-        <v>196.8286437988281</v>
+        <v>129.0734252929688</v>
       </c>
       <c r="CD3" t="n">
-        <v>196.1381530761719</v>
+        <v>129.1921844482422</v>
       </c>
       <c r="CE3" t="n">
-        <v>195.3050689697266</v>
+        <v>129.2485198974609</v>
       </c>
       <c r="CF3" t="n">
-        <v>194.7233734130859</v>
+        <v>128.9987487792969</v>
       </c>
       <c r="CG3" t="n">
-        <v>194.6340179443359</v>
+        <v>128.8765258789062</v>
       </c>
       <c r="CH3" t="n">
-        <v>194.7080383300781</v>
+        <v>127.7362365722656</v>
       </c>
       <c r="CI3" t="n">
-        <v>194.9856719970703</v>
+        <v>126.8950500488281</v>
       </c>
       <c r="CJ3" t="n">
-        <v>194.8392791748047</v>
+        <v>126.3943328857422</v>
       </c>
       <c r="CK3" t="n">
-        <v>194.5349731445312</v>
+        <v>125.9777374267578</v>
       </c>
       <c r="CL3" t="n">
-        <v>194.5474243164062</v>
+        <v>125.5551300048828</v>
       </c>
       <c r="CM3" t="n">
-        <v>194.425537109375</v>
+        <v>125.0760269165039</v>
       </c>
       <c r="CN3" t="n">
-        <v>194.5475158691406</v>
+        <v>124.1996231079102</v>
       </c>
       <c r="CO3" t="n">
-        <v>195.0404510498047</v>
+        <v>123.904052734375</v>
       </c>
       <c r="CP3" t="n">
-        <v>195.6954803466797</v>
+        <v>123.6117858886719</v>
       </c>
       <c r="CQ3" t="n">
-        <v>195.9294738769531</v>
+        <v>123.4215087890625</v>
       </c>
       <c r="CR3" t="n">
-        <v>196.1771087646484</v>
+        <v>123.2731094360352</v>
       </c>
       <c r="CS3" t="n">
-        <v>196.3924713134766</v>
+        <v>123.1394729614258</v>
       </c>
       <c r="CT3" t="n">
-        <v>196.4492492675781</v>
+        <v>123.1186752319336</v>
       </c>
       <c r="CU3" t="n">
-        <v>195.8503570556641</v>
+        <v>123.124382019043</v>
       </c>
       <c r="CV3" t="n">
-        <v>198.4929504394531</v>
+        <v>123.3814544677734</v>
       </c>
       <c r="CW3" t="n">
-        <v>200.2346801757812</v>
+        <v>123.4971542358398</v>
       </c>
       <c r="CX3" t="n">
-        <v>198.2251281738281</v>
+        <v>124.8528213500977</v>
       </c>
       <c r="CY3" t="n">
-        <v>193.8370208740234</v>
+        <v>125.1664810180664</v>
       </c>
       <c r="CZ3" t="n">
-        <v>195.6976318359375</v>
+        <v>124.4113845825195</v>
       </c>
       <c r="DA3" t="n">
-        <v>198.0868835449219</v>
+        <v>124.1044921875</v>
       </c>
       <c r="DB3" t="n">
-        <v>200.6582641601562</v>
+        <v>123.8918762207031</v>
       </c>
       <c r="DC3" t="n">
-        <v>199.4513702392578</v>
+        <v>123.6020278930664</v>
       </c>
       <c r="DD3" t="n">
-        <v>200.6199493408203</v>
+        <v>123.4360733032227</v>
       </c>
       <c r="DE3" t="n">
-        <v>199.7694244384766</v>
+        <v>123.2381591796875</v>
       </c>
       <c r="DF3" t="n">
-        <v>198.0789337158203</v>
+        <v>123.6317977905273</v>
       </c>
       <c r="DG3" t="n">
-        <v>198.3205261230469</v>
+        <v>123.7958374023438</v>
       </c>
       <c r="DH3" t="n">
-        <v>200.1957244873047</v>
+        <v>124.2394104003906</v>
       </c>
       <c r="DI3" t="n">
-        <v>210.6679534912109</v>
+        <v>124.3916244506836</v>
       </c>
       <c r="DJ3" t="n">
-        <v>200.5411529541016</v>
+        <v>124.7263641357422</v>
       </c>
       <c r="DK3" t="n">
-        <v>207.0010375976562</v>
+        <v>124.9616317749023</v>
       </c>
       <c r="DL3" t="n">
-        <v>197.3296051025391</v>
+        <v>125.1105041503906</v>
       </c>
       <c r="DM3" t="n">
-        <v>196.0290679931641</v>
+        <v>125.2766265869141</v>
       </c>
       <c r="DN3" t="n">
-        <v>195.7773284912109</v>
+        <v>125.4300537109375</v>
       </c>
       <c r="DO3" t="n">
-        <v>199.0704650878906</v>
+        <v>125.5569381713867</v>
       </c>
       <c r="DP3" t="n">
-        <v>200.8680114746094</v>
+        <v>125.7545623779297</v>
       </c>
       <c r="DQ3" t="n">
-        <v>200.4098205566406</v>
+        <v>126.9079132080078</v>
       </c>
       <c r="DR3" t="n">
-        <v>198.2840881347656</v>
+        <v>127.7041015625</v>
       </c>
       <c r="DS3" t="n">
-        <v>194.4739685058594</v>
+        <v>128.188720703125</v>
       </c>
       <c r="DT3" t="n">
-        <v>192.8153686523438</v>
+        <v>128.451416015625</v>
       </c>
       <c r="DU3" t="n">
-        <v>191.1490325927734</v>
+        <v>129.0624694824219</v>
       </c>
       <c r="DV3" t="n">
-        <v>192.0098724365234</v>
+        <v>130.0341033935547</v>
       </c>
       <c r="DW3" t="n">
-        <v>192.4131622314453</v>
+        <v>133.3186187744141</v>
       </c>
       <c r="DX3" t="n">
-        <v>191.2794647216797</v>
+        <v>134.6928100585938</v>
       </c>
       <c r="DY3" t="n">
-        <v>189.857177734375</v>
+        <v>136.8751068115234</v>
       </c>
       <c r="DZ3" t="n">
-        <v>189.0537872314453</v>
+        <v>141.04345703125</v>
       </c>
       <c r="EA3" t="n">
-        <v>188.9809265136719</v>
+        <v>143.0089263916016</v>
       </c>
       <c r="EB3" t="n">
-        <v>189.0564575195312</v>
+        <v>146.8425903320312</v>
       </c>
       <c r="EC3" t="n">
-        <v>189.3614349365234</v>
+        <v>149.2753143310547</v>
       </c>
       <c r="ED3" t="n">
-        <v>189.3169708251953</v>
+        <v>152.4344940185547</v>
       </c>
       <c r="EE3" t="n">
-        <v>189.6879119873047</v>
+        <v>156.4925537109375</v>
       </c>
       <c r="EF3" t="n">
-        <v>189.8882446289062</v>
+        <v>162.4588775634766</v>
       </c>
       <c r="EG3" t="n">
-        <v>189.7376403808594</v>
+        <v>165.2957763671875</v>
       </c>
       <c r="EH3" t="n">
-        <v>190.4719543457031</v>
+        <v>166.1644744873047</v>
       </c>
       <c r="EI3" t="n">
-        <v>190.8988037109375</v>
+        <v>167.5829925537109</v>
       </c>
       <c r="EJ3" t="n">
-        <v>192.5689239501953</v>
+        <v>167.4696197509766</v>
       </c>
       <c r="EK3" t="n">
-        <v>193.2136535644531</v>
+        <v>167.0704803466797</v>
       </c>
       <c r="EL3" t="n">
-        <v>193.6406555175781</v>
+        <v>166.8476257324219</v>
       </c>
       <c r="EM3" t="n">
-        <v>195.6033172607422</v>
+        <v>166.9279632568359</v>
       </c>
       <c r="EN3" t="n">
-        <v>196.14208984375</v>
+        <v>166.4958648681641</v>
       </c>
       <c r="EO3" t="n">
-        <v>196.4423522949219</v>
+        <v>167.2770385742188</v>
       </c>
       <c r="EP3" t="n">
-        <v>197.087646484375</v>
+        <v>168.6103820800781</v>
       </c>
       <c r="EQ3" t="n">
-        <v>196.1778106689453</v>
+        <v>176.0776062011719</v>
       </c>
       <c r="ER3" t="n">
-        <v>195.8534088134766</v>
+        <v>178.1240386962891</v>
       </c>
       <c r="ES3" t="n">
-        <v>195.7593078613281</v>
+        <v>181.7328796386719</v>
       </c>
       <c r="ET3" t="n">
-        <v>194.1644897460938</v>
+        <v>187.2393798828125</v>
       </c>
       <c r="EU3" t="n">
-        <v>193.0564270019531</v>
+        <v>189.0786590576172</v>
       </c>
       <c r="EV3" t="n">
-        <v>192.2710571289062</v>
+        <v>189.4674682617188</v>
       </c>
       <c r="EW3" t="n">
-        <v>192.3525543212891</v>
+        <v>189.8847808837891</v>
       </c>
       <c r="EX3" t="n">
-        <v>192.5886993408203</v>
+        <v>192.7491455078125</v>
       </c>
       <c r="EY3" t="n">
-        <v>193.2512817382812</v>
+        <v>194.4113159179688</v>
       </c>
       <c r="EZ3" t="n">
-        <v>194.7749176025391</v>
+        <v>195.4944305419922</v>
       </c>
       <c r="FA3" t="n">
-        <v>202.3804626464844</v>
+        <v>198.2439422607422</v>
       </c>
       <c r="FB3" t="n">
-        <v>200.7900695800781</v>
+        <v>200.2382354736328</v>
       </c>
       <c r="FC3" t="n">
-        <v>196.7350921630859</v>
+        <v>204.934814453125</v>
       </c>
       <c r="FD3" t="n">
-        <v>194.4030456542969</v>
+        <v>207.6873016357422</v>
       </c>
       <c r="FE3" t="n">
-        <v>193.6199340820312</v>
+        <v>209.2180633544922</v>
       </c>
       <c r="FF3" t="n">
-        <v>192.8934020996094</v>
+        <v>210.8335723876953</v>
       </c>
       <c r="FG3" t="n">
-        <v>192.3698272705078</v>
+        <v>213.7493743896484</v>
       </c>
       <c r="FH3" t="n">
-        <v>192.9991455078125</v>
+        <v>214.6909027099609</v>
       </c>
       <c r="FI3" t="n">
-        <v>193.3651733398438</v>
+        <v>217.9810028076172</v>
       </c>
       <c r="FJ3" t="n">
-        <v>193.0309143066406</v>
+        <v>221.0710601806641</v>
       </c>
       <c r="FK3" t="n">
-        <v>193.5026245117188</v>
+        <v>225.0918579101562</v>
       </c>
       <c r="FL3" t="n">
-        <v>194.8227233886719</v>
+        <v>225.7740020751953</v>
       </c>
       <c r="FM3" t="n">
-        <v>195.3299102783203</v>
+        <v>226.0079040527344</v>
       </c>
       <c r="FN3" t="n">
-        <v>194.385986328125</v>
+        <v>225.9171142578125</v>
       </c>
       <c r="FO3" t="n">
-        <v>208.0892333984375</v>
+        <v>226.0532836914062</v>
       </c>
       <c r="FP3" t="n">
-        <v>199.0186614990234</v>
+        <v>226.5547485351562</v>
       </c>
       <c r="FQ3" t="n">
-        <v>201.6764984130859</v>
+        <v>227.0079345703125</v>
       </c>
       <c r="FR3" t="n">
-        <v>207.1646423339844</v>
+        <v>227.9424438476562</v>
       </c>
       <c r="FS3" t="n">
-        <v>206.29541015625</v>
+        <v>229.51904296875</v>
       </c>
       <c r="FT3" t="n">
-        <v>201.8084564208984</v>
+        <v>229.4561462402344</v>
       </c>
       <c r="FU3" t="n">
-        <v>194.5021209716797</v>
+        <v>229.4250946044922</v>
       </c>
       <c r="FV3" t="n">
-        <v>192.2397155761719</v>
+        <v>231.6970520019531</v>
       </c>
       <c r="FW3" t="n">
-        <v>191.5822906494141</v>
+        <v>235.5435943603516</v>
       </c>
       <c r="FX3" t="n">
-        <v>191.5388946533203</v>
+        <v>236.9494476318359</v>
       </c>
       <c r="FY3" t="n">
-        <v>192.0295104980469</v>
+        <v>237.5788726806641</v>
       </c>
       <c r="FZ3" t="n">
-        <v>193.9242858886719</v>
+        <v>238.0894775390625</v>
       </c>
       <c r="GA3" t="n">
-        <v>191.728515625</v>
+        <v>238.152587890625</v>
       </c>
       <c r="GB3" t="n">
-        <v>190.1483154296875</v>
+        <v>237.9821624755859</v>
       </c>
       <c r="GC3" t="n">
-        <v>188.4112548828125</v>
+        <v>237.3545379638672</v>
       </c>
       <c r="GD3" t="n">
-        <v>188.5095062255859</v>
+        <v>236.1663208007812</v>
       </c>
       <c r="GE3" t="n">
-        <v>192.6746978759766</v>
+        <v>235.7061309814453</v>
       </c>
       <c r="GF3" t="n">
-        <v>193.8210144042969</v>
+        <v>234.8183441162109</v>
       </c>
       <c r="GG3" t="n">
-        <v>190.3758850097656</v>
+        <v>234.2028503417969</v>
       </c>
       <c r="GH3" t="n">
-        <v>189.6251220703125</v>
+        <v>233.624755859375</v>
       </c>
       <c r="GI3" t="n">
-        <v>186.1358032226562</v>
+        <v>233.6985931396484</v>
       </c>
       <c r="GJ3" t="n">
-        <v>183.2718658447266</v>
+        <v>233.5351867675781</v>
       </c>
       <c r="GK3" t="n">
-        <v>180.332275390625</v>
+        <v>233.0786895751953</v>
       </c>
       <c r="GL3" t="n">
-        <v>178.3444213867188</v>
+        <v>231.5325927734375</v>
       </c>
       <c r="GM3" t="n">
-        <v>178.0070495605469</v>
+        <v>230.6019287109375</v>
       </c>
       <c r="GN3" t="n">
-        <v>177.5487213134766</v>
+        <v>230.6065216064453</v>
       </c>
       <c r="GO3" t="n">
-        <v>176.8839874267578</v>
+        <v>231.3500518798828</v>
       </c>
       <c r="GP3" t="n">
-        <v>175.0156097412109</v>
+        <v>231.0877990722656</v>
       </c>
       <c r="GQ3" t="n">
-        <v>174.3836517333984</v>
+        <v>230.69873046875</v>
       </c>
       <c r="GR3" t="n">
-        <v>174.5015563964844</v>
+        <v>230.9369812011719</v>
       </c>
       <c r="GS3" t="n">
-        <v>173.7294158935547</v>
+        <v>230.7437896728516</v>
       </c>
       <c r="GT3" t="n">
-        <v>172.5752868652344</v>
+        <v>229.9813537597656</v>
       </c>
       <c r="GU3" t="n">
-        <v>169.3810577392578</v>
+        <v>228.2145385742188</v>
       </c>
       <c r="GV3" t="n">
-        <v>168.1903839111328</v>
+        <v>227.6738433837891</v>
       </c>
       <c r="GW3" t="n">
-        <v>165.8494873046875</v>
+        <v>227.5477447509766</v>
       </c>
       <c r="GX3" t="n">
-        <v>162.6101989746094</v>
+        <v>227.2507019042969</v>
       </c>
       <c r="GY3" t="n">
-        <v>160.7390899658203</v>
+        <v>226.5602264404297</v>
       </c>
       <c r="GZ3" t="n">
-        <v>157.7259368896484</v>
+        <v>225.5713195800781</v>
       </c>
       <c r="HA3" t="n">
-        <v>154.9799346923828</v>
+        <v>225.1432342529297</v>
       </c>
       <c r="HB3" t="n">
-        <v>153.9163360595703</v>
+        <v>225.1274719238281</v>
       </c>
       <c r="HC3" t="n">
-        <v>152.6632080078125</v>
+        <v>224.7392425537109</v>
       </c>
       <c r="HD3" t="n">
-        <v>150.4415893554688</v>
+        <v>224.5887451171875</v>
       </c>
       <c r="HE3" t="n">
-        <v>149.5631256103516</v>
+        <v>224.8785400390625</v>
       </c>
       <c r="HF3" t="n">
-        <v>142.7308502197266</v>
+        <v>224.0095367431641</v>
       </c>
       <c r="HG3" t="n">
-        <v>137.7319946289062</v>
+        <v>224.0143737792969</v>
       </c>
       <c r="HH3" t="n">
-        <v>129.1977844238281</v>
+        <v>224.8060302734375</v>
       </c>
       <c r="HI3" t="n">
-        <v>123.4115829467773</v>
+        <v>224.6557769775391</v>
       </c>
       <c r="HJ3" t="n">
-        <v>119.1158676147461</v>
+        <v>224.9874420166016</v>
       </c>
       <c r="HK3" t="n">
-        <v>116.4850463867188</v>
+        <v>225.5873413085938</v>
       </c>
       <c r="HL3" t="n">
-        <v>111.9545211791992</v>
+        <v>225.0020599365234</v>
       </c>
       <c r="HM3" t="n">
-        <v>105.8682556152344</v>
+        <v>227.3098602294922</v>
       </c>
       <c r="HN3" t="n">
-        <v>95.6209716796875</v>
+        <v>229.3363800048828</v>
       </c>
       <c r="HO3" t="n">
-        <v>89.32573699951172</v>
+        <v>228.244140625</v>
       </c>
       <c r="HP3" t="n">
-        <v>81.85636901855469</v>
+        <v>226.8932189941406</v>
       </c>
       <c r="HQ3" t="n">
-        <v>75.40422058105469</v>
+        <v>226.4631958007812</v>
       </c>
       <c r="HR3" t="n">
-        <v>71.167236328125</v>
+        <v>224.0871734619141</v>
       </c>
       <c r="HS3" t="n">
-        <v>68.478271484375</v>
+        <v>222.9769439697266</v>
       </c>
       <c r="HT3" t="n">
-        <v>62.24626159667969</v>
+        <v>222.6911163330078</v>
       </c>
       <c r="HU3" t="n">
-        <v>55.28496932983398</v>
+        <v>222.6483917236328</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>222.4348907470703</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>222.5533294677734</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>222.77685546875</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>222.8837127685547</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>223.0548400878906</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>223.3794097900391</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>223.5261993408203</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>224.2978668212891</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>226.1329803466797</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>227.3186950683594</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>228.0782318115234</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>228.4147796630859</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>228.4308166503906</v>
+      </c>
+      <c r="II3" t="n">
+        <v>227.8717193603516</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>228.4832916259766</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>228.3350067138672</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>228.5221099853516</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>229.4040069580078</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>231.4282989501953</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>231.5501403808594</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>231.35791015625</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>229.6552429199219</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>228.4924011230469</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>228.3515319824219</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>227.2401123046875</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>227.4380187988281</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>229.1982574462891</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>230.3023834228516</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>230.4722137451172</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>230.3992614746094</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>230.1480865478516</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>229.6510467529297</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>228.5582733154297</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>229.6286926269531</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>229.9874267578125</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>230.4335174560547</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>229.6072082519531</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>227.8887786865234</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>227.3108215332031</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>227.3858489990234</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>227.3718109130859</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>226.8087615966797</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>224.9588928222656</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>224.2966003417969</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>223.828857421875</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>223.6396026611328</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>223.4773712158203</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>223.24072265625</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>222.6227264404297</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>222.5738525390625</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>223.2064819335938</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>223.34033203125</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>223.2706298828125</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>223.223388671875</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>223.1129455566406</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>222.9685516357422</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>222.9075775146484</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>222.8740234375</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>222.8293304443359</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>222.8200988769531</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>222.892578125</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>223.1419677734375</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>223.6585388183594</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>224.1165008544922</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>223.4184265136719</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>222.9382934570312</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>222.6943969726562</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>222.8694305419922</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>222.9880981445312</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>223.0959777832031</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>223.1540679931641</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>223.0805358886719</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>222.9502410888672</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>222.7670593261719</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>222.6668243408203</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>222.5974426269531</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>222.5938415527344</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>222.5481262207031</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>222.50927734375</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>222.50341796875</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>222.5025939941406</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>222.4187316894531</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>222.341064453125</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>222.7893829345703</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>223.0189514160156</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>222.9647979736328</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>222.2864379882812</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>221.4640502929688</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>216.8572540283203</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>215.5433349609375</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>214.9158477783203</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>209.9936218261719</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>201.6631317138672</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>192.1258544921875</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>187.0836181640625</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>182.1582336425781</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>173.0134735107422</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>167.2812805175781</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>159.9651184082031</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>153.3952331542969</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>146.9418792724609</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>138.6116638183594</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>117.5288772583008</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>101.3203887939453</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>81.25420379638672</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>65.781005859375</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>59.92726516723633</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>54.14231872558594</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>47.02163696289062</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>44.96836853027344</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>45.39985656738281</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>45.65673446655273</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>43.14047241210938</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>35.01362228393555</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>31.89925003051758</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>47.58513641357422</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>62.72541809082031</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>84.48262786865234</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>143.4652557373047</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>195.2648773193359</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>213.9703521728516</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>242.9043426513672</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>248.3902893066406</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>245.6420745849609</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>244.0951843261719</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>243.8663940429688</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>242.1440734863281</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>241.7641906738281</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>240.9395904541016</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>240.2155151367188</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>234.5744018554688</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>223.1166381835938</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>211.0504608154297</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>203.1570892333984</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>192.3766632080078</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>181.7604675292969</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>176.7850494384766</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>176.7367095947266</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>179.2896118164062</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>183.5119934082031</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>192.4738159179688</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>200.7572784423828</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>203.0743865966797</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>205.5684356689453</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>208.3633575439453</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>209.0383453369141</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>208.1096343994141</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>206.3009490966797</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>938.2587280273438</v>
+        <v>1040.416870117188</v>
       </c>
       <c r="B4" t="n">
-        <v>957.4746704101562</v>
+        <v>1048.677612304688</v>
       </c>
       <c r="C4" t="n">
-        <v>977.5607299804688</v>
+        <v>1053.09326171875</v>
       </c>
       <c r="D4" t="n">
-        <v>997.2434692382812</v>
+        <v>1059.205078125</v>
       </c>
       <c r="E4" t="n">
-        <v>1020.256958007812</v>
+        <v>1066.119384765625</v>
       </c>
       <c r="F4" t="n">
-        <v>1044.884155273438</v>
+        <v>1074.606567382812</v>
       </c>
       <c r="G4" t="n">
-        <v>1070.604858398438</v>
+        <v>1085.83740234375</v>
       </c>
       <c r="H4" t="n">
-        <v>1095.941284179688</v>
+        <v>1098.088012695312</v>
       </c>
       <c r="I4" t="n">
-        <v>1124.15087890625</v>
+        <v>1107.135864257812</v>
       </c>
       <c r="J4" t="n">
-        <v>1153.322021484375</v>
+        <v>1115.372924804688</v>
       </c>
       <c r="K4" t="n">
-        <v>1181.670776367188</v>
+        <v>1123.229858398438</v>
       </c>
       <c r="L4" t="n">
-        <v>1208.602416992188</v>
+        <v>1129.773681640625</v>
       </c>
       <c r="M4" t="n">
-        <v>1235.282958984375</v>
+        <v>1204.598999023438</v>
       </c>
       <c r="N4" t="n">
-        <v>1264.365600585938</v>
+        <v>1214.4365234375</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.066284179688</v>
+        <v>1255.361694335938</v>
       </c>
       <c r="P4" t="n">
-        <v>1337.32080078125</v>
+        <v>1264.060302734375</v>
       </c>
       <c r="Q4" t="n">
-        <v>1382.850463867188</v>
+        <v>1271.239135742188</v>
       </c>
       <c r="R4" t="n">
-        <v>1421.89990234375</v>
+        <v>1280.572265625</v>
       </c>
       <c r="S4" t="n">
-        <v>1462.406494140625</v>
+        <v>1296.521484375</v>
       </c>
       <c r="T4" t="n">
-        <v>1501.181762695312</v>
+        <v>1312.736206054688</v>
       </c>
       <c r="U4" t="n">
-        <v>1540.101806640625</v>
+        <v>1326.301147460938</v>
       </c>
       <c r="V4" t="n">
-        <v>1578.023071289062</v>
+        <v>1342.389038085938</v>
       </c>
       <c r="W4" t="n">
-        <v>1618.325927734375</v>
+        <v>1364.250854492188</v>
       </c>
       <c r="X4" t="n">
-        <v>1660.495483398438</v>
+        <v>1386.23193359375</v>
       </c>
       <c r="Y4" t="n">
-        <v>1702.726684570312</v>
+        <v>1407.7578125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1747.852783203125</v>
+        <v>1424.383666992188</v>
       </c>
       <c r="AA4" t="n">
-        <v>1792.954833984375</v>
+        <v>1438.744995117188</v>
       </c>
       <c r="AB4" t="n">
-        <v>1834.572875976562</v>
+        <v>1452.872802734375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1875.298217773438</v>
+        <v>1462.462890625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1908.040649414062</v>
+        <v>1473.329467773438</v>
       </c>
       <c r="AE4" t="n">
-        <v>1937.568969726562</v>
+        <v>1485.142456054688</v>
       </c>
       <c r="AF4" t="n">
-        <v>1973.432250976562</v>
+        <v>1494.27001953125</v>
       </c>
       <c r="AG4" t="n">
-        <v>2017.005126953125</v>
+        <v>1501.2216796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2057.63916015625</v>
+        <v>1504.270751953125</v>
       </c>
       <c r="AI4" t="n">
-        <v>2091.197265625</v>
+        <v>1510.177612304688</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2119.209228515625</v>
+        <v>1513.620483398438</v>
       </c>
       <c r="AK4" t="n">
-        <v>2150.237548828125</v>
+        <v>1517.02001953125</v>
       </c>
       <c r="AL4" t="n">
-        <v>2190.155029296875</v>
+        <v>1518.501586914062</v>
       </c>
       <c r="AM4" t="n">
-        <v>2235.528564453125</v>
+        <v>1519.946533203125</v>
       </c>
       <c r="AN4" t="n">
-        <v>2276.549072265625</v>
+        <v>1521.015502929688</v>
       </c>
       <c r="AO4" t="n">
-        <v>2340.736328125</v>
+        <v>1522.226318359375</v>
       </c>
       <c r="AP4" t="n">
-        <v>2377.03564453125</v>
+        <v>1523.459716796875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2423.54248046875</v>
+        <v>1524.71630859375</v>
       </c>
       <c r="AR4" t="n">
-        <v>2467.920166015625</v>
+        <v>1525.791381835938</v>
       </c>
       <c r="AS4" t="n">
-        <v>2501.02783203125</v>
+        <v>1526.161010742188</v>
       </c>
       <c r="AT4" t="n">
-        <v>2530.083740234375</v>
+        <v>1525.672241210938</v>
       </c>
       <c r="AU4" t="n">
-        <v>2555.88134765625</v>
+        <v>1523.181518554688</v>
       </c>
       <c r="AV4" t="n">
-        <v>2587.513427734375</v>
+        <v>1517.04931640625</v>
       </c>
       <c r="AW4" t="n">
-        <v>2632.73291015625</v>
+        <v>1504.602294921875</v>
       </c>
       <c r="AX4" t="n">
-        <v>2688.020751953125</v>
+        <v>1493.837524414062</v>
       </c>
       <c r="AY4" t="n">
-        <v>2734.361328125</v>
+        <v>1484.867065429688</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2765.654052734375</v>
+        <v>1477.500122070312</v>
       </c>
       <c r="BA4" t="n">
-        <v>2786.38134765625</v>
+        <v>1469.01904296875</v>
       </c>
       <c r="BB4" t="n">
-        <v>2802.332763671875</v>
+        <v>1458.947509765625</v>
       </c>
       <c r="BC4" t="n">
-        <v>2823.984619140625</v>
+        <v>1446.6298828125</v>
       </c>
       <c r="BD4" t="n">
-        <v>2850.8359375</v>
+        <v>1438.247924804688</v>
       </c>
       <c r="BE4" t="n">
-        <v>2878.40185546875</v>
+        <v>1431.095336914062</v>
       </c>
       <c r="BF4" t="n">
-        <v>2912.85791015625</v>
+        <v>1423.434814453125</v>
       </c>
       <c r="BG4" t="n">
-        <v>2974.55322265625</v>
+        <v>1415.099609375</v>
       </c>
       <c r="BH4" t="n">
-        <v>3038.119873046875</v>
+        <v>1406.081298828125</v>
       </c>
       <c r="BI4" t="n">
-        <v>3092.043212890625</v>
+        <v>1397.9287109375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3126.966796875</v>
+        <v>1390.572875976562</v>
       </c>
       <c r="BK4" t="n">
-        <v>3144.3984375</v>
+        <v>1384.937744140625</v>
       </c>
       <c r="BL4" t="n">
-        <v>3157.48388671875</v>
+        <v>1378.572998046875</v>
       </c>
       <c r="BM4" t="n">
-        <v>3164.05078125</v>
+        <v>1373.246826171875</v>
       </c>
       <c r="BN4" t="n">
-        <v>3170.339599609375</v>
+        <v>1365.006103515625</v>
       </c>
       <c r="BO4" t="n">
-        <v>3185.625732421875</v>
+        <v>1353.153564453125</v>
       </c>
       <c r="BP4" t="n">
-        <v>3205.316650390625</v>
+        <v>1347.422729492188</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3235.545166015625</v>
+        <v>1342.6083984375</v>
       </c>
       <c r="BR4" t="n">
-        <v>3262.393310546875</v>
+        <v>1337.689453125</v>
       </c>
       <c r="BS4" t="n">
-        <v>3283.002685546875</v>
+        <v>1334.485595703125</v>
       </c>
       <c r="BT4" t="n">
-        <v>3301.814208984375</v>
+        <v>1331.209594726562</v>
       </c>
       <c r="BU4" t="n">
-        <v>3319.033935546875</v>
+        <v>1328.067504882812</v>
       </c>
       <c r="BV4" t="n">
-        <v>3332.55322265625</v>
+        <v>1326.10986328125</v>
       </c>
       <c r="BW4" t="n">
-        <v>3363.12841796875</v>
+        <v>1324.2763671875</v>
       </c>
       <c r="BX4" t="n">
-        <v>3389.7958984375</v>
+        <v>1322.33447265625</v>
       </c>
       <c r="BY4" t="n">
-        <v>3412.654052734375</v>
+        <v>1316.39111328125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3455.544677734375</v>
+        <v>1310.064819335938</v>
       </c>
       <c r="CA4" t="n">
-        <v>3470.4873046875</v>
+        <v>1305.678955078125</v>
       </c>
       <c r="CB4" t="n">
-        <v>3483.330810546875</v>
+        <v>1301.138061523438</v>
       </c>
       <c r="CC4" t="n">
-        <v>3502.84521484375</v>
+        <v>1297.504028320312</v>
       </c>
       <c r="CD4" t="n">
-        <v>3522.23095703125</v>
+        <v>1292.943481445312</v>
       </c>
       <c r="CE4" t="n">
-        <v>3531.8056640625</v>
+        <v>1286.517578125</v>
       </c>
       <c r="CF4" t="n">
-        <v>3543.751953125</v>
+        <v>1283.373046875</v>
       </c>
       <c r="CG4" t="n">
-        <v>3558.837158203125</v>
+        <v>1279.896118164062</v>
       </c>
       <c r="CH4" t="n">
-        <v>3583.22509765625</v>
+        <v>1275.202270507812</v>
       </c>
       <c r="CI4" t="n">
-        <v>3608.2412109375</v>
+        <v>1271.860717773438</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3624.13134765625</v>
+        <v>1269.586059570312</v>
       </c>
       <c r="CK4" t="n">
-        <v>3632.290771484375</v>
+        <v>1268.271850585938</v>
       </c>
       <c r="CL4" t="n">
-        <v>3632.276611328125</v>
+        <v>1267.546508789062</v>
       </c>
       <c r="CM4" t="n">
-        <v>3635.072998046875</v>
+        <v>1266.119262695312</v>
       </c>
       <c r="CN4" t="n">
-        <v>3644.182373046875</v>
+        <v>1264.423095703125</v>
       </c>
       <c r="CO4" t="n">
-        <v>3654.792724609375</v>
+        <v>1263.960205078125</v>
       </c>
       <c r="CP4" t="n">
-        <v>3670.88720703125</v>
+        <v>1263.593139648438</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3681.97412109375</v>
+        <v>1263.45361328125</v>
       </c>
       <c r="CR4" t="n">
-        <v>3694.76318359375</v>
+        <v>1263.481689453125</v>
       </c>
       <c r="CS4" t="n">
-        <v>3705.255859375</v>
+        <v>1263.504028320312</v>
       </c>
       <c r="CT4" t="n">
-        <v>3721.41552734375</v>
+        <v>1263.512939453125</v>
       </c>
       <c r="CU4" t="n">
-        <v>3721.35302734375</v>
+        <v>1263.610717773438</v>
       </c>
       <c r="CV4" t="n">
-        <v>3733.97216796875</v>
+        <v>1264.983154296875</v>
       </c>
       <c r="CW4" t="n">
-        <v>3740.56298828125</v>
+        <v>1266.281005859375</v>
       </c>
       <c r="CX4" t="n">
-        <v>3732.351806640625</v>
+        <v>1266.960083007812</v>
       </c>
       <c r="CY4" t="n">
-        <v>3719.18359375</v>
+        <v>1266.575805664062</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3756.318603515625</v>
+        <v>1267.628662109375</v>
       </c>
       <c r="DA4" t="n">
-        <v>3776.454833984375</v>
+        <v>1267.937255859375</v>
       </c>
       <c r="DB4" t="n">
-        <v>3788.45556640625</v>
+        <v>1268.373657226562</v>
       </c>
       <c r="DC4" t="n">
-        <v>3775.135009765625</v>
+        <v>1269.091552734375</v>
       </c>
       <c r="DD4" t="n">
-        <v>3780.75341796875</v>
+        <v>1269.840942382812</v>
       </c>
       <c r="DE4" t="n">
-        <v>3771.92822265625</v>
+        <v>1271.033447265625</v>
       </c>
       <c r="DF4" t="n">
-        <v>3732.581787109375</v>
+        <v>1272.878662109375</v>
       </c>
       <c r="DG4" t="n">
-        <v>3744.9208984375</v>
+        <v>1273.658081054688</v>
       </c>
       <c r="DH4" t="n">
-        <v>3747.21337890625</v>
+        <v>1275.631713867188</v>
       </c>
       <c r="DI4" t="n">
-        <v>3682.78466796875</v>
+        <v>1276.234008789062</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3613.802734375</v>
+        <v>1278.671020507812</v>
       </c>
       <c r="DK4" t="n">
-        <v>3572.0625</v>
+        <v>1281.432861328125</v>
       </c>
       <c r="DL4" t="n">
-        <v>3640.662841796875</v>
+        <v>1282.590576171875</v>
       </c>
       <c r="DM4" t="n">
-        <v>3681.228515625</v>
+        <v>1283.74462890625</v>
       </c>
       <c r="DN4" t="n">
-        <v>3694.54150390625</v>
+        <v>1284.994750976562</v>
       </c>
       <c r="DO4" t="n">
-        <v>3706.247802734375</v>
+        <v>1286.314331054688</v>
       </c>
       <c r="DP4" t="n">
-        <v>3703.34814453125</v>
+        <v>1288.311157226562</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3690.719970703125</v>
+        <v>1297.30615234375</v>
       </c>
       <c r="DR4" t="n">
-        <v>3670.601806640625</v>
+        <v>1303.218017578125</v>
       </c>
       <c r="DS4" t="n">
-        <v>3652.5947265625</v>
+        <v>1307.459594726562</v>
       </c>
       <c r="DT4" t="n">
-        <v>3649.16943359375</v>
+        <v>1311.7607421875</v>
       </c>
       <c r="DU4" t="n">
-        <v>3651.364990234375</v>
+        <v>1316.11865234375</v>
       </c>
       <c r="DV4" t="n">
-        <v>3649.756591796875</v>
+        <v>1318.882202148438</v>
       </c>
       <c r="DW4" t="n">
-        <v>3643.427978515625</v>
+        <v>1327.683349609375</v>
       </c>
       <c r="DX4" t="n">
-        <v>3620.92138671875</v>
+        <v>1334.747924804688</v>
       </c>
       <c r="DY4" t="n">
-        <v>3599.419189453125</v>
+        <v>1343.096435546875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3590.398193359375</v>
+        <v>1361.653442382812</v>
       </c>
       <c r="EA4" t="n">
-        <v>3588.291259765625</v>
+        <v>1370.287109375</v>
       </c>
       <c r="EB4" t="n">
-        <v>3590.75439453125</v>
+        <v>1383.3017578125</v>
       </c>
       <c r="EC4" t="n">
-        <v>3592.9365234375</v>
+        <v>1391.311767578125</v>
       </c>
       <c r="ED4" t="n">
-        <v>3596.364990234375</v>
+        <v>1402.276977539062</v>
       </c>
       <c r="EE4" t="n">
-        <v>3596.753662109375</v>
+        <v>1418.60986328125</v>
       </c>
       <c r="EF4" t="n">
-        <v>3595.508544921875</v>
+        <v>1436.989379882812</v>
       </c>
       <c r="EG4" t="n">
-        <v>3564.39697265625</v>
+        <v>1454.875244140625</v>
       </c>
       <c r="EH4" t="n">
-        <v>3532.599853515625</v>
+        <v>1464.353149414062</v>
       </c>
       <c r="EI4" t="n">
-        <v>3528.536865234375</v>
+        <v>1480.591430664062</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3539.476318359375</v>
+        <v>1489.83251953125</v>
       </c>
       <c r="EK4" t="n">
-        <v>3535.521240234375</v>
+        <v>1511.759643554688</v>
       </c>
       <c r="EL4" t="n">
-        <v>3525.58349609375</v>
+        <v>1526.106201171875</v>
       </c>
       <c r="EM4" t="n">
-        <v>3501.84033203125</v>
+        <v>1548.781005859375</v>
       </c>
       <c r="EN4" t="n">
-        <v>3466.03662109375</v>
+        <v>1555.89208984375</v>
       </c>
       <c r="EO4" t="n">
-        <v>3461.13427734375</v>
+        <v>1575.851196289062</v>
       </c>
       <c r="EP4" t="n">
-        <v>3483.631591796875</v>
+        <v>1587.49658203125</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3504.779052734375</v>
+        <v>1637.080688476562</v>
       </c>
       <c r="ER4" t="n">
-        <v>3515.19775390625</v>
+        <v>1650.455810546875</v>
       </c>
       <c r="ES4" t="n">
-        <v>3506.041259765625</v>
+        <v>1674.675537109375</v>
       </c>
       <c r="ET4" t="n">
-        <v>3493.6708984375</v>
+        <v>1713.359985351562</v>
       </c>
       <c r="EU4" t="n">
-        <v>3481.309326171875</v>
+        <v>1729.689575195312</v>
       </c>
       <c r="EV4" t="n">
-        <v>3483.0234375</v>
+        <v>1742.802490234375</v>
       </c>
       <c r="EW4" t="n">
-        <v>3493.732421875</v>
+        <v>1769.040893554688</v>
       </c>
       <c r="EX4" t="n">
-        <v>3494.11181640625</v>
+        <v>1807.652099609375</v>
       </c>
       <c r="EY4" t="n">
-        <v>3505.03076171875</v>
+        <v>1826.760986328125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3525.379150390625</v>
+        <v>1845.795288085938</v>
       </c>
       <c r="FA4" t="n">
-        <v>3554.7802734375</v>
+        <v>1884.93310546875</v>
       </c>
       <c r="FB4" t="n">
-        <v>3547.586669921875</v>
+        <v>1906.647216796875</v>
       </c>
       <c r="FC4" t="n">
-        <v>3542.826416015625</v>
+        <v>1958.015014648438</v>
       </c>
       <c r="FD4" t="n">
-        <v>3553.1513671875</v>
+        <v>2013.82861328125</v>
       </c>
       <c r="FE4" t="n">
-        <v>3557.82275390625</v>
+        <v>2036.9541015625</v>
       </c>
       <c r="FF4" t="n">
-        <v>3562.4921875</v>
+        <v>2055.15673828125</v>
       </c>
       <c r="FG4" t="n">
-        <v>3573.524169921875</v>
+        <v>2086.8515625</v>
       </c>
       <c r="FH4" t="n">
-        <v>3586.5615234375</v>
+        <v>2109.8525390625</v>
       </c>
       <c r="FI4" t="n">
-        <v>3593.079833984375</v>
+        <v>2153.9384765625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3582.12744140625</v>
+        <v>2178.51171875</v>
       </c>
       <c r="FK4" t="n">
-        <v>3572.1298828125</v>
+        <v>2228.6728515625</v>
       </c>
       <c r="FL4" t="n">
-        <v>3556.353759765625</v>
+        <v>2243.96142578125</v>
       </c>
       <c r="FM4" t="n">
-        <v>3561.834716796875</v>
+        <v>2261.044921875</v>
       </c>
       <c r="FN4" t="n">
-        <v>3543.930908203125</v>
+        <v>2270.68359375</v>
       </c>
       <c r="FO4" t="n">
-        <v>3392.811279296875</v>
+        <v>2283.516845703125</v>
       </c>
       <c r="FP4" t="n">
-        <v>3442.22314453125</v>
+        <v>2312.3583984375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3414.799560546875</v>
+        <v>2339.7138671875</v>
       </c>
       <c r="FR4" t="n">
-        <v>3462.6552734375</v>
+        <v>2374.356689453125</v>
       </c>
       <c r="FS4" t="n">
-        <v>3478.8134765625</v>
+        <v>2409.38330078125</v>
       </c>
       <c r="FT4" t="n">
-        <v>3522.42724609375</v>
+        <v>2433.193115234375</v>
       </c>
       <c r="FU4" t="n">
-        <v>3532.162841796875</v>
+        <v>2440.715087890625</v>
       </c>
       <c r="FV4" t="n">
-        <v>3496.465087890625</v>
+        <v>2449.270263671875</v>
       </c>
       <c r="FW4" t="n">
-        <v>3457.864501953125</v>
+        <v>2458.287109375</v>
       </c>
       <c r="FX4" t="n">
-        <v>3448.853271484375</v>
+        <v>2460.879638671875</v>
       </c>
       <c r="FY4" t="n">
-        <v>3437.86767578125</v>
+        <v>2460.90771484375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3437.548583984375</v>
+        <v>2463.327392578125</v>
       </c>
       <c r="GA4" t="n">
-        <v>3379.416748046875</v>
+        <v>2464.73486328125</v>
       </c>
       <c r="GB4" t="n">
-        <v>3353.16748046875</v>
+        <v>2470.1103515625</v>
       </c>
       <c r="GC4" t="n">
-        <v>3309.844970703125</v>
+        <v>2473.6572265625</v>
       </c>
       <c r="GD4" t="n">
-        <v>3302.3515625</v>
+        <v>2481.852783203125</v>
       </c>
       <c r="GE4" t="n">
-        <v>3302.4697265625</v>
+        <v>2482.697509765625</v>
       </c>
       <c r="GF4" t="n">
-        <v>3285.6982421875</v>
+        <v>2483.87451171875</v>
       </c>
       <c r="GG4" t="n">
-        <v>3205.998291015625</v>
+        <v>2478.9033203125</v>
       </c>
       <c r="GH4" t="n">
-        <v>3173.412353515625</v>
+        <v>2470.538818359375</v>
       </c>
       <c r="GI4" t="n">
-        <v>3124.873779296875</v>
+        <v>2465.955322265625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>3075.1337890625</v>
+        <v>2463.73486328125</v>
       </c>
       <c r="GK4" t="n">
-        <v>2963.586181640625</v>
+        <v>2460.03173828125</v>
       </c>
       <c r="GL4" t="n">
-        <v>2861.869384765625</v>
+        <v>2458.6337890625</v>
       </c>
       <c r="GM4" t="n">
-        <v>2832.313232421875</v>
+        <v>2456.288818359375</v>
       </c>
       <c r="GN4" t="n">
-        <v>2823.935546875</v>
+        <v>2457.20849609375</v>
       </c>
       <c r="GO4" t="n">
-        <v>2794.90771484375</v>
+        <v>2462.794921875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2742.412353515625</v>
+        <v>2460.33154296875</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2716.0791015625</v>
+        <v>2449.956787109375</v>
       </c>
       <c r="GR4" t="n">
-        <v>2689.144775390625</v>
+        <v>2441.739501953125</v>
       </c>
       <c r="GS4" t="n">
-        <v>2606.238525390625</v>
+        <v>2438.679443359375</v>
       </c>
       <c r="GT4" t="n">
-        <v>2554.905029296875</v>
+        <v>2435.09814453125</v>
       </c>
       <c r="GU4" t="n">
-        <v>2478.8408203125</v>
+        <v>2431.6376953125</v>
       </c>
       <c r="GV4" t="n">
-        <v>2434.704345703125</v>
+        <v>2435.337646484375</v>
       </c>
       <c r="GW4" t="n">
-        <v>2352.653564453125</v>
+        <v>2435.421142578125</v>
       </c>
       <c r="GX4" t="n">
-        <v>2269.8232421875</v>
+        <v>2429.994140625</v>
       </c>
       <c r="GY4" t="n">
-        <v>2217.203369140625</v>
+        <v>2421.689697265625</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2146.093505859375</v>
+        <v>2412.31640625</v>
       </c>
       <c r="HA4" t="n">
-        <v>2068.15185546875</v>
+        <v>2408.066650390625</v>
       </c>
       <c r="HB4" t="n">
-        <v>2026.423461914062</v>
+        <v>2410.20703125</v>
       </c>
       <c r="HC4" t="n">
-        <v>1947.256103515625</v>
+        <v>2408.68505859375</v>
       </c>
       <c r="HD4" t="n">
-        <v>1860.584106445312</v>
+        <v>2407.82373046875</v>
       </c>
       <c r="HE4" t="n">
-        <v>1836.990356445312</v>
+        <v>2416.994140625</v>
       </c>
       <c r="HF4" t="n">
-        <v>1743.603393554688</v>
+        <v>2408.39306640625</v>
       </c>
       <c r="HG4" t="n">
-        <v>1677.324584960938</v>
+        <v>2396.670654296875</v>
       </c>
       <c r="HH4" t="n">
-        <v>1583.005981445312</v>
+        <v>2406.6123046875</v>
       </c>
       <c r="HI4" t="n">
-        <v>1514.618774414062</v>
+        <v>2407.0283203125</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1451.372192382812</v>
+        <v>2412.3701171875</v>
       </c>
       <c r="HK4" t="n">
-        <v>1386.8330078125</v>
+        <v>2408.015625</v>
       </c>
       <c r="HL4" t="n">
-        <v>1320.748657226562</v>
+        <v>2368.43505859375</v>
       </c>
       <c r="HM4" t="n">
-        <v>1257.27587890625</v>
+        <v>2358.501220703125</v>
       </c>
       <c r="HN4" t="n">
-        <v>1172.7568359375</v>
+        <v>2354.69580078125</v>
       </c>
       <c r="HO4" t="n">
-        <v>1128.246459960938</v>
+        <v>2341.724853515625</v>
       </c>
       <c r="HP4" t="n">
-        <v>1083.582275390625</v>
+        <v>2333.35693359375</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1039.366088867188</v>
+        <v>2325.951904296875</v>
       </c>
       <c r="HR4" t="n">
-        <v>994.9560546875</v>
+        <v>2308.8251953125</v>
       </c>
       <c r="HS4" t="n">
-        <v>949.9603881835938</v>
+        <v>2296.979736328125</v>
       </c>
       <c r="HT4" t="n">
-        <v>903.1473388671875</v>
+        <v>2288.67578125</v>
       </c>
       <c r="HU4" t="n">
-        <v>860.6874389648438</v>
+        <v>2282.602783203125</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2273.932373046875</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2270.976318359375</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2269.695068359375</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2269.630126953125</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2269.842529296875</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2270.2861328125</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2270.589111328125</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2271.90234375</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2273.279541015625</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2271.939453125</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2272.556396484375</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2281.16015625</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2282.748779296875</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2289.2958984375</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2296.733154296875</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2311.5712890625</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2313.87353515625</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2324.906982421875</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2351.7216796875</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2356.0849609375</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2356.44580078125</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2358.21533203125</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2371.64794921875</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2379.778076171875</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2383.55712890625</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2391.83349609375</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2403.724609375</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2411.19189453125</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2410.876220703125</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2409.441650390625</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2408.22998046875</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2404.4931640625</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2395.091552734375</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2384.405029296875</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2382.23388671875</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2372.37646484375</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2354.611083984375</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2334.72998046875</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2328.626220703125</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2325.762939453125</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2322.75439453125</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2322.21875</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2311.37060546875</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2307.084716796875</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2304.7919921875</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2303.170166015625</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2300.500732421875</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2296.214599609375</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2284.90869140625</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2273.001708984375</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2273.99609375</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2273.771240234375</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2274.209228515625</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2274.355712890625</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2273.268798828125</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2270.984619140625</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2269.35986328125</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2267.73193359375</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2265.716796875</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2263.68212890625</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2263.045166015625</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2265.8505859375</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2273.77001953125</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2274.3720703125</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2276.91845703125</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2278.5263671875</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2279.438720703125</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>2279.117431640625</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>2278.887451171875</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>2278.640380859375</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>2278.49462890625</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>2279.066162109375</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>2279.851806640625</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>2281.171142578125</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2281.197509765625</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2281.293212890625</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2281.202392578125</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2281.136962890625</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2281.1865234375</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2281.189208984375</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2281.175048828125</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2279.556396484375</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>2273.0830078125</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>2270.87451171875</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>2261.549560546875</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>2246.02880859375</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>2214.290283203125</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>2188.654052734375</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>2115.96337890625</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>2065.706298828125</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>2040.986083984375</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1962.951171875</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1857.787719726562</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1771.923583984375</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1711.970092773438</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1652.46240234375</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1591.26953125</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1538.4541015625</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1461.256225585938</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1366.898071289062</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1289.918212890625</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>1211.428833007812</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>1082.964599609375</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>1018.093627929688</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>966.4595336914062</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>930.1832885742188</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>906.0347900390625</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>881.5289306640625</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>850.9142456054688</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>840.847900390625</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>830.2095336914062</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>822.2314453125</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>815.1939697265625</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>792.480224609375</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>757.8319702148438</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>698.927490234375</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>693.9478149414062</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>693.4559936523438</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>729.7667236328125</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>784.8663330078125</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>821.8345336914062</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>860.8853759765625</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>880.2576904296875</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>900.3143920898438</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>914.5079956054688</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>914.4534301757812</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>886.6705322265625</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>867.0448608398438</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>831.1453247070312</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>795.3350219726562</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>789.7208862304688</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>773.9094848632812</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>753.5204467773438</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>750.0595703125</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>743.1693115234375</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>734.7994995117188</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>734.6948852539062</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>751.66015625</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>774.6619873046875</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>781.217529296875</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>791.4652099609375</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>807.245849609375</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>818.7225341796875</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>823.9813842773438</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>824.9304809570312</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>824.2682495117188</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>818.9970703125</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>808.2262573242188</v>
       </c>
     </row>
   </sheetData>

--- a/head_Data_Variable.xlsx
+++ b/head_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>307.4975280761719</v>
+        <v>260.6497497558594</v>
       </c>
       <c r="B2" t="n">
-        <v>311.8878173828125</v>
+        <v>263.8748168945312</v>
       </c>
       <c r="C2" t="n">
-        <v>317.2427368164062</v>
+        <v>266.2154541015625</v>
       </c>
       <c r="D2" t="n">
-        <v>322.6215209960938</v>
+        <v>268.9210205078125</v>
       </c>
       <c r="E2" t="n">
-        <v>330.7870788574219</v>
+        <v>271.292724609375</v>
       </c>
       <c r="F2" t="n">
-        <v>341.7334594726562</v>
+        <v>274.982177734375</v>
       </c>
       <c r="G2" t="n">
-        <v>353.6660766601562</v>
+        <v>279.2478637695312</v>
       </c>
       <c r="H2" t="n">
-        <v>364.9164428710938</v>
+        <v>286.2589721679688</v>
       </c>
       <c r="I2" t="n">
-        <v>375.9013366699219</v>
+        <v>293.1441040039062</v>
       </c>
       <c r="J2" t="n">
-        <v>386.269287109375</v>
+        <v>299.9951782226562</v>
       </c>
       <c r="K2" t="n">
-        <v>396.61962890625</v>
+        <v>305.0010070800781</v>
       </c>
       <c r="L2" t="n">
-        <v>404.5818481445312</v>
+        <v>310.0880126953125</v>
       </c>
       <c r="M2" t="n">
-        <v>435.0167846679688</v>
+        <v>314.5336608886719</v>
       </c>
       <c r="N2" t="n">
-        <v>437.741455078125</v>
+        <v>321.0196533203125</v>
       </c>
       <c r="O2" t="n">
-        <v>441.1669311523438</v>
+        <v>349.000732421875</v>
       </c>
       <c r="P2" t="n">
-        <v>439.7420654296875</v>
+        <v>350.2712707519531</v>
       </c>
       <c r="Q2" t="n">
-        <v>438.8766784667969</v>
+        <v>350.8582153320312</v>
       </c>
       <c r="R2" t="n">
-        <v>437.8150024414062</v>
+        <v>350.9151916503906</v>
       </c>
       <c r="S2" t="n">
-        <v>435.774169921875</v>
+        <v>350.67919921875</v>
       </c>
       <c r="T2" t="n">
-        <v>432.7844543457031</v>
+        <v>350.2459716796875</v>
       </c>
       <c r="U2" t="n">
-        <v>428.1957397460938</v>
+        <v>349.7442321777344</v>
       </c>
       <c r="V2" t="n">
-        <v>422.6086120605469</v>
+        <v>349.3745727539062</v>
       </c>
       <c r="W2" t="n">
-        <v>415.111328125</v>
+        <v>348.6155700683594</v>
       </c>
       <c r="X2" t="n">
-        <v>410.0565185546875</v>
+        <v>347.7847290039062</v>
       </c>
       <c r="Y2" t="n">
-        <v>405.9754943847656</v>
+        <v>346.3610229492188</v>
       </c>
       <c r="Z2" t="n">
-        <v>402.8152160644531</v>
+        <v>344.7977905273438</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.1654663085938</v>
+        <v>343.6793823242188</v>
       </c>
       <c r="AB2" t="n">
-        <v>395.03173828125</v>
+        <v>342.8623046875</v>
       </c>
       <c r="AC2" t="n">
-        <v>391.3048095703125</v>
+        <v>342.201416015625</v>
       </c>
       <c r="AD2" t="n">
-        <v>387.603515625</v>
+        <v>341.6136169433594</v>
       </c>
       <c r="AE2" t="n">
-        <v>385.038818359375</v>
+        <v>340.9005126953125</v>
       </c>
       <c r="AF2" t="n">
-        <v>382.3009948730469</v>
+        <v>339.8548889160156</v>
       </c>
       <c r="AG2" t="n">
-        <v>379.8145141601562</v>
+        <v>338.3043823242188</v>
       </c>
       <c r="AH2" t="n">
-        <v>377.5800170898438</v>
+        <v>336.761474609375</v>
       </c>
       <c r="AI2" t="n">
-        <v>375.7402954101562</v>
+        <v>335.1372985839844</v>
       </c>
       <c r="AJ2" t="n">
-        <v>374.7796325683594</v>
+        <v>334.2443237304688</v>
       </c>
       <c r="AK2" t="n">
-        <v>373.384765625</v>
+        <v>333.3937377929688</v>
       </c>
       <c r="AL2" t="n">
-        <v>371.4453735351562</v>
+        <v>332.5729370117188</v>
       </c>
       <c r="AM2" t="n">
-        <v>368.8441772460938</v>
+        <v>331.9013061523438</v>
       </c>
       <c r="AN2" t="n">
-        <v>367.40283203125</v>
+        <v>330.825927734375</v>
       </c>
       <c r="AO2" t="n">
-        <v>366.6569519042969</v>
+        <v>329.8210144042969</v>
       </c>
       <c r="AP2" t="n">
-        <v>365.7648315429688</v>
+        <v>328.936279296875</v>
       </c>
       <c r="AQ2" t="n">
-        <v>364.5943603515625</v>
+        <v>328.2022094726562</v>
       </c>
       <c r="AR2" t="n">
-        <v>363.2337036132812</v>
+        <v>327.8591613769531</v>
       </c>
       <c r="AS2" t="n">
-        <v>362.3683471679688</v>
+        <v>327.6757507324219</v>
       </c>
       <c r="AT2" t="n">
-        <v>361.376953125</v>
+        <v>327.5656433105469</v>
       </c>
       <c r="AU2" t="n">
-        <v>360.871826171875</v>
+        <v>327.4404602050781</v>
       </c>
       <c r="AV2" t="n">
-        <v>360.6477661132812</v>
+        <v>327.3775634765625</v>
       </c>
       <c r="AW2" t="n">
-        <v>360.7473449707031</v>
+        <v>327.3493957519531</v>
       </c>
       <c r="AX2" t="n">
-        <v>360.8800964355469</v>
+        <v>327.2700805664062</v>
       </c>
       <c r="AY2" t="n">
-        <v>361.0083618164062</v>
+        <v>327.2314147949219</v>
       </c>
       <c r="AZ2" t="n">
-        <v>361.0314636230469</v>
+        <v>327.2478942871094</v>
       </c>
       <c r="BA2" t="n">
-        <v>361.1670532226562</v>
+        <v>327.2673034667969</v>
       </c>
       <c r="BB2" t="n">
-        <v>361.2916564941406</v>
+        <v>327.5221252441406</v>
       </c>
       <c r="BC2" t="n">
-        <v>361.5005187988281</v>
+        <v>327.8347778320312</v>
       </c>
       <c r="BD2" t="n">
-        <v>361.43115234375</v>
+        <v>328.3841552734375</v>
       </c>
       <c r="BE2" t="n">
-        <v>361.31982421875</v>
+        <v>329.2523803710938</v>
       </c>
       <c r="BF2" t="n">
-        <v>361.102783203125</v>
+        <v>330.517822265625</v>
       </c>
       <c r="BG2" t="n">
-        <v>360.8109130859375</v>
+        <v>331.2426147460938</v>
       </c>
       <c r="BH2" t="n">
-        <v>359.881591796875</v>
+        <v>331.6931762695312</v>
       </c>
       <c r="BI2" t="n">
-        <v>357.7406616210938</v>
+        <v>332.0107727050781</v>
       </c>
       <c r="BJ2" t="n">
-        <v>355.189453125</v>
+        <v>332.1166381835938</v>
       </c>
       <c r="BK2" t="n">
-        <v>351.4019165039062</v>
+        <v>332.1349487304688</v>
       </c>
       <c r="BL2" t="n">
-        <v>347.43359375</v>
+        <v>332.1466674804688</v>
       </c>
       <c r="BM2" t="n">
-        <v>343.9456787109375</v>
+        <v>332.1508178710938</v>
       </c>
       <c r="BN2" t="n">
-        <v>340.9104919433594</v>
+        <v>332.1521606445312</v>
       </c>
       <c r="BO2" t="n">
-        <v>335.147216796875</v>
+        <v>332.1515502929688</v>
       </c>
       <c r="BP2" t="n">
-        <v>331.8641967773438</v>
+        <v>332.1504211425781</v>
       </c>
       <c r="BQ2" t="n">
-        <v>328.58544921875</v>
+        <v>332.1487426757812</v>
       </c>
       <c r="BR2" t="n">
-        <v>326.0320434570312</v>
+        <v>332.1471862792969</v>
       </c>
       <c r="BS2" t="n">
-        <v>324.0420227050781</v>
+        <v>332.1455383300781</v>
       </c>
       <c r="BT2" t="n">
-        <v>322.2296752929688</v>
+        <v>332.1435852050781</v>
       </c>
       <c r="BU2" t="n">
-        <v>321.1174011230469</v>
+        <v>332.1421508789062</v>
       </c>
       <c r="BV2" t="n">
-        <v>320.0947570800781</v>
+        <v>332.1400756835938</v>
       </c>
       <c r="BW2" t="n">
-        <v>319.5099487304688</v>
+        <v>332.1454467773438</v>
       </c>
       <c r="BX2" t="n">
-        <v>319.1018981933594</v>
+        <v>332.164794921875</v>
       </c>
       <c r="BY2" t="n">
-        <v>318.6898803710938</v>
+        <v>332.1880493164062</v>
       </c>
       <c r="BZ2" t="n">
-        <v>318.6593017578125</v>
+        <v>332.2069702148438</v>
       </c>
       <c r="CA2" t="n">
-        <v>319.1111145019531</v>
+        <v>332.2201843261719</v>
       </c>
       <c r="CB2" t="n">
-        <v>320.5246276855469</v>
+        <v>332.2351684570312</v>
       </c>
       <c r="CC2" t="n">
-        <v>323.4183349609375</v>
+        <v>332.2470703125</v>
       </c>
       <c r="CD2" t="n">
-        <v>326.5653076171875</v>
+        <v>332.2583618164062</v>
       </c>
       <c r="CE2" t="n">
-        <v>334.2808532714844</v>
+        <v>332.2644653320312</v>
       </c>
       <c r="CF2" t="n">
-        <v>337.9176635742188</v>
+        <v>332.2630615234375</v>
       </c>
       <c r="CG2" t="n">
-        <v>340.82373046875</v>
+        <v>332.2611083984375</v>
       </c>
       <c r="CH2" t="n">
-        <v>346.2288818359375</v>
+        <v>332.25830078125</v>
       </c>
       <c r="CI2" t="n">
-        <v>350.7552490234375</v>
+        <v>332.2526550292969</v>
       </c>
       <c r="CJ2" t="n">
-        <v>354.8918151855469</v>
+        <v>332.251220703125</v>
       </c>
       <c r="CK2" t="n">
-        <v>357.7242736816406</v>
+        <v>332.3482971191406</v>
       </c>
       <c r="CL2" t="n">
-        <v>360.2715759277344</v>
+        <v>332.4643249511719</v>
       </c>
       <c r="CM2" t="n">
-        <v>363.0389404296875</v>
+        <v>332.5879516601562</v>
       </c>
       <c r="CN2" t="n">
-        <v>367.5579223632812</v>
+        <v>332.7095031738281</v>
       </c>
       <c r="CO2" t="n">
-        <v>369.6924438476562</v>
+        <v>332.802978515625</v>
       </c>
       <c r="CP2" t="n">
-        <v>372.0897827148438</v>
+        <v>332.85302734375</v>
       </c>
       <c r="CQ2" t="n">
-        <v>373.6552429199219</v>
+        <v>332.8953552246094</v>
       </c>
       <c r="CR2" t="n">
-        <v>374.7706909179688</v>
+        <v>332.9123229980469</v>
       </c>
       <c r="CS2" t="n">
-        <v>375.4355163574219</v>
+        <v>332.9268798828125</v>
       </c>
       <c r="CT2" t="n">
-        <v>375.518798828125</v>
+        <v>332.9341430664062</v>
       </c>
       <c r="CU2" t="n">
-        <v>375.5203247070312</v>
+        <v>332.947998046875</v>
       </c>
       <c r="CV2" t="n">
-        <v>374.2117309570312</v>
+        <v>332.9632873535156</v>
       </c>
       <c r="CW2" t="n">
-        <v>372.1072387695312</v>
+        <v>332.9687805175781</v>
       </c>
       <c r="CX2" t="n">
-        <v>367.2886657714844</v>
+        <v>332.9691162109375</v>
       </c>
       <c r="CY2" t="n">
-        <v>364.584228515625</v>
+        <v>332.9724731445312</v>
       </c>
       <c r="CZ2" t="n">
-        <v>359.3657836914062</v>
+        <v>332.9730834960938</v>
       </c>
       <c r="DA2" t="n">
-        <v>357.5391235351562</v>
+        <v>332.9737854003906</v>
       </c>
       <c r="DB2" t="n">
-        <v>355.2779541015625</v>
+        <v>332.9739990234375</v>
       </c>
       <c r="DC2" t="n">
-        <v>352.3778686523438</v>
+        <v>332.9738159179688</v>
       </c>
       <c r="DD2" t="n">
-        <v>348.0023803710938</v>
+        <v>332.9736328125</v>
       </c>
       <c r="DE2" t="n">
-        <v>338.9598999023438</v>
+        <v>332.9764404296875</v>
       </c>
       <c r="DF2" t="n">
-        <v>333.3636169433594</v>
+        <v>332.9537353515625</v>
       </c>
       <c r="DG2" t="n">
-        <v>330.6677856445312</v>
+        <v>332.8417663574219</v>
       </c>
       <c r="DH2" t="n">
-        <v>325.4141845703125</v>
+        <v>332.3340454101562</v>
       </c>
       <c r="DI2" t="n">
-        <v>323.0164184570312</v>
+        <v>331.7989501953125</v>
       </c>
       <c r="DJ2" t="n">
-        <v>319.4448547363281</v>
+        <v>331.2635498046875</v>
       </c>
       <c r="DK2" t="n">
-        <v>316.4761962890625</v>
+        <v>330.3224182128906</v>
       </c>
       <c r="DL2" t="n">
-        <v>314.2592468261719</v>
+        <v>330.1898803710938</v>
       </c>
       <c r="DM2" t="n">
-        <v>312.1710815429688</v>
+        <v>330.1282348632812</v>
       </c>
       <c r="DN2" t="n">
-        <v>310.5540466308594</v>
+        <v>330.1055908203125</v>
       </c>
       <c r="DO2" t="n">
-        <v>309.2956237792969</v>
+        <v>330.1162109375</v>
       </c>
       <c r="DP2" t="n">
-        <v>308.8612670898438</v>
+        <v>330.1214904785156</v>
       </c>
       <c r="DQ2" t="n">
-        <v>308.7855224609375</v>
+        <v>330.1300659179688</v>
       </c>
       <c r="DR2" t="n">
-        <v>308.8177185058594</v>
+        <v>330.1367492675781</v>
       </c>
       <c r="DS2" t="n">
-        <v>308.8431396484375</v>
+        <v>330.1416015625</v>
       </c>
       <c r="DT2" t="n">
-        <v>308.8633422851562</v>
+        <v>330.1529541015625</v>
       </c>
       <c r="DU2" t="n">
-        <v>309.0475769042969</v>
+        <v>330.1456298828125</v>
       </c>
       <c r="DV2" t="n">
-        <v>309.3206481933594</v>
+        <v>330.1004333496094</v>
       </c>
       <c r="DW2" t="n">
-        <v>312.670654296875</v>
+        <v>330.1044006347656</v>
       </c>
       <c r="DX2" t="n">
-        <v>316.8746032714844</v>
+        <v>330.2771301269531</v>
       </c>
       <c r="DY2" t="n">
-        <v>320.8523254394531</v>
+        <v>330.6244201660156</v>
       </c>
       <c r="DZ2" t="n">
-        <v>329.73095703125</v>
+        <v>330.9314575195312</v>
       </c>
       <c r="EA2" t="n">
-        <v>333.6029663085938</v>
+        <v>331.0668640136719</v>
       </c>
       <c r="EB2" t="n">
-        <v>343.4993896484375</v>
+        <v>331.2043762207031</v>
       </c>
       <c r="EC2" t="n">
-        <v>350.6972045898438</v>
+        <v>331.1954956054688</v>
       </c>
       <c r="ED2" t="n">
-        <v>357.073974609375</v>
+        <v>331.2001953125</v>
       </c>
       <c r="EE2" t="n">
-        <v>367.6404418945312</v>
+        <v>331.21875</v>
       </c>
       <c r="EF2" t="n">
-        <v>380.7162780761719</v>
+        <v>331.2494506835938</v>
       </c>
       <c r="EG2" t="n">
-        <v>395.2945556640625</v>
+        <v>331.2199401855469</v>
       </c>
       <c r="EH2" t="n">
-        <v>401.8485107421875</v>
+        <v>331.0036926269531</v>
       </c>
       <c r="EI2" t="n">
-        <v>412.7888488769531</v>
+        <v>330.6945495605469</v>
       </c>
       <c r="EJ2" t="n">
-        <v>416.3772277832031</v>
+        <v>330.3272705078125</v>
       </c>
       <c r="EK2" t="n">
-        <v>422.8671264648438</v>
+        <v>326.6983032226562</v>
       </c>
       <c r="EL2" t="n">
-        <v>426.0667724609375</v>
+        <v>325.5857849121094</v>
       </c>
       <c r="EM2" t="n">
-        <v>431.2169799804688</v>
+        <v>325.5328979492188</v>
       </c>
       <c r="EN2" t="n">
-        <v>432.7850341796875</v>
+        <v>325.4828186035156</v>
       </c>
       <c r="EO2" t="n">
-        <v>435.9645385742188</v>
+        <v>325.4669189453125</v>
       </c>
       <c r="EP2" t="n">
-        <v>438.531494140625</v>
+        <v>325.4643249511719</v>
       </c>
       <c r="EQ2" t="n">
-        <v>443.0918884277344</v>
+        <v>325.4747009277344</v>
       </c>
       <c r="ER2" t="n">
-        <v>444.2103881835938</v>
+        <v>325.4503784179688</v>
       </c>
       <c r="ES2" t="n">
-        <v>445.1578369140625</v>
+        <v>325.4540405273438</v>
       </c>
       <c r="ET2" t="n">
-        <v>446.1147766113281</v>
+        <v>325.4925842285156</v>
       </c>
       <c r="EU2" t="n">
-        <v>447.3258056640625</v>
+        <v>325.7696228027344</v>
       </c>
       <c r="EV2" t="n">
-        <v>447.8707275390625</v>
+        <v>326.7606201171875</v>
       </c>
       <c r="EW2" t="n">
-        <v>448.7080078125</v>
+        <v>327.5184936523438</v>
       </c>
       <c r="EX2" t="n">
-        <v>449.8800354003906</v>
+        <v>328.813720703125</v>
       </c>
       <c r="EY2" t="n">
-        <v>450.4538269042969</v>
+        <v>329.2509155273438</v>
       </c>
       <c r="EZ2" t="n">
-        <v>450.7966918945312</v>
+        <v>329.6474609375</v>
       </c>
       <c r="FA2" t="n">
-        <v>451.2481079101562</v>
+        <v>330.0570678710938</v>
       </c>
       <c r="FB2" t="n">
-        <v>452.0580444335938</v>
+        <v>330.4419250488281</v>
       </c>
       <c r="FC2" t="n">
-        <v>452.211181640625</v>
+        <v>331.7769775390625</v>
       </c>
       <c r="FD2" t="n">
-        <v>450.4292602539062</v>
+        <v>333.6906127929688</v>
       </c>
       <c r="FE2" t="n">
-        <v>449.6123657226562</v>
+        <v>335.361572265625</v>
       </c>
       <c r="FF2" t="n">
-        <v>448.857177734375</v>
+        <v>339.0161743164062</v>
       </c>
       <c r="FG2" t="n">
-        <v>447.4628295898438</v>
+        <v>340.1950378417969</v>
       </c>
       <c r="FH2" t="n">
-        <v>446.3287963867188</v>
+        <v>341.9232177734375</v>
       </c>
       <c r="FI2" t="n">
-        <v>444.23193359375</v>
+        <v>342.5662841796875</v>
       </c>
       <c r="FJ2" t="n">
-        <v>443.1012268066406</v>
+        <v>344.8272399902344</v>
       </c>
       <c r="FK2" t="n">
-        <v>441.3869934082031</v>
+        <v>346.4928894042969</v>
       </c>
       <c r="FL2" t="n">
-        <v>440.8201293945312</v>
+        <v>347.0426025390625</v>
       </c>
       <c r="FM2" t="n">
-        <v>439.8587646484375</v>
+        <v>348.0413208007812</v>
       </c>
       <c r="FN2" t="n">
-        <v>438.9833374023438</v>
+        <v>349.1297912597656</v>
       </c>
       <c r="FO2" t="n">
-        <v>437.7720642089844</v>
+        <v>350.1282043457031</v>
       </c>
       <c r="FP2" t="n">
-        <v>433.8682556152344</v>
+        <v>349.1644897460938</v>
       </c>
       <c r="FQ2" t="n">
-        <v>428.9199829101562</v>
+        <v>348.4222717285156</v>
       </c>
       <c r="FR2" t="n">
-        <v>425.484619140625</v>
+        <v>346.812744140625</v>
       </c>
       <c r="FS2" t="n">
-        <v>422.6983032226562</v>
+        <v>346.2189331054688</v>
       </c>
       <c r="FT2" t="n">
-        <v>416.9799499511719</v>
+        <v>344.5791015625</v>
       </c>
       <c r="FU2" t="n">
-        <v>412.9288330078125</v>
+        <v>341.6740417480469</v>
       </c>
       <c r="FV2" t="n">
-        <v>405.8797607421875</v>
+        <v>337.5233154296875</v>
       </c>
       <c r="FW2" t="n">
-        <v>399.2938842773438</v>
+        <v>331.1882934570312</v>
       </c>
       <c r="FX2" t="n">
-        <v>395.3135681152344</v>
+        <v>328.3680419921875</v>
       </c>
       <c r="FY2" t="n">
-        <v>392.9425354003906</v>
+        <v>325.0764465332031</v>
       </c>
       <c r="FZ2" t="n">
-        <v>388.511474609375</v>
+        <v>323.9440612792969</v>
       </c>
       <c r="GA2" t="n">
-        <v>387.1903686523438</v>
+        <v>319.5130004882812</v>
       </c>
       <c r="GB2" t="n">
-        <v>384.7847900390625</v>
+        <v>316.5894165039062</v>
       </c>
       <c r="GC2" t="n">
-        <v>384.1593017578125</v>
+        <v>311.379638671875</v>
       </c>
       <c r="GD2" t="n">
-        <v>383.6222534179688</v>
+        <v>309.4269409179688</v>
       </c>
       <c r="GE2" t="n">
-        <v>383.77294921875</v>
+        <v>306.9960021972656</v>
       </c>
       <c r="GF2" t="n">
-        <v>385.9219055175781</v>
+        <v>305.4443664550781</v>
       </c>
       <c r="GG2" t="n">
-        <v>389.3173828125</v>
+        <v>303.9502258300781</v>
       </c>
       <c r="GH2" t="n">
-        <v>391.5465698242188</v>
+        <v>301.8207397460938</v>
       </c>
       <c r="GI2" t="n">
-        <v>391.0066223144531</v>
+        <v>300.4705200195312</v>
       </c>
       <c r="GJ2" t="n">
-        <v>388.1042785644531</v>
+        <v>299.8746032714844</v>
       </c>
       <c r="GK2" t="n">
-        <v>386.2156982421875</v>
+        <v>299.1116943359375</v>
       </c>
       <c r="GL2" t="n">
-        <v>382.4004821777344</v>
+        <v>299.0470886230469</v>
       </c>
       <c r="GM2" t="n">
-        <v>378.4190673828125</v>
+        <v>299.2820129394531</v>
       </c>
       <c r="GN2" t="n">
-        <v>375.5042724609375</v>
+        <v>299.7288818359375</v>
       </c>
       <c r="GO2" t="n">
-        <v>367.9425048828125</v>
+        <v>300.1622924804688</v>
       </c>
       <c r="GP2" t="n">
-        <v>361.0787353515625</v>
+        <v>300.7320556640625</v>
       </c>
       <c r="GQ2" t="n">
-        <v>352.7006225585938</v>
+        <v>301.3581848144531</v>
       </c>
       <c r="GR2" t="n">
-        <v>346.64404296875</v>
+        <v>302.0130310058594</v>
       </c>
       <c r="GS2" t="n">
-        <v>340.0008544921875</v>
+        <v>302.2420959472656</v>
       </c>
       <c r="GT2" t="n">
-        <v>337.5150146484375</v>
+        <v>302.5752563476562</v>
       </c>
       <c r="GU2" t="n">
-        <v>331.5675048828125</v>
+        <v>303.5380859375</v>
       </c>
       <c r="GV2" t="n">
-        <v>328.1111145019531</v>
+        <v>305.81982421875</v>
       </c>
       <c r="GW2" t="n">
-        <v>327.4243774414062</v>
+        <v>307.9213256835938</v>
       </c>
       <c r="GX2" t="n">
-        <v>325.7314453125</v>
+        <v>310.046875</v>
       </c>
       <c r="GY2" t="n">
-        <v>323.5335693359375</v>
+        <v>306.3968505859375</v>
       </c>
       <c r="GZ2" t="n">
-        <v>323.36376953125</v>
+        <v>302.2208862304688</v>
       </c>
       <c r="HA2" t="n">
-        <v>323.9275512695312</v>
+        <v>289.6829528808594</v>
       </c>
       <c r="HB2" t="n">
-        <v>324.6633911132812</v>
+        <v>276.1029968261719</v>
       </c>
       <c r="HC2" t="n">
-        <v>325.1197509765625</v>
+        <v>258.5070190429688</v>
       </c>
       <c r="HD2" t="n">
-        <v>325.3571166992188</v>
+        <v>236.3693542480469</v>
       </c>
       <c r="HE2" t="n">
-        <v>325.8412475585938</v>
+        <v>208.4739990234375</v>
       </c>
       <c r="HF2" t="n">
-        <v>327.4056701660156</v>
+        <v>176.9612884521484</v>
       </c>
       <c r="HG2" t="n">
-        <v>333.0651245117188</v>
+        <v>148.83642578125</v>
       </c>
       <c r="HH2" t="n">
-        <v>334.7517700195312</v>
+        <v>118.2415390014648</v>
       </c>
       <c r="HI2" t="n">
-        <v>335.7164001464844</v>
+        <v>89.96603393554688</v>
       </c>
       <c r="HJ2" t="n">
-        <v>338.6952514648438</v>
+        <v>76.84101867675781</v>
       </c>
       <c r="HK2" t="n">
-        <v>346.1552429199219</v>
+        <v>95.74864196777344</v>
       </c>
       <c r="HL2" t="n">
-        <v>353.5028686523438</v>
+        <v>122.3864364624023</v>
       </c>
       <c r="HM2" t="n">
-        <v>361.0793762207031</v>
+        <v>129.0647735595703</v>
       </c>
       <c r="HN2" t="n">
-        <v>369.5752563476562</v>
+        <v>106.4007720947266</v>
       </c>
       <c r="HO2" t="n">
-        <v>384.7633361816406</v>
+        <v>119.4847946166992</v>
       </c>
       <c r="HP2" t="n">
-        <v>393.1453857421875</v>
+        <v>137.6805114746094</v>
       </c>
       <c r="HQ2" t="n">
-        <v>397.1787719726562</v>
+        <v>153.7315368652344</v>
       </c>
       <c r="HR2" t="n">
-        <v>408.9955444335938</v>
+        <v>178.3763122558594</v>
       </c>
       <c r="HS2" t="n">
-        <v>415.5957336425781</v>
+        <v>193.4299011230469</v>
       </c>
       <c r="HT2" t="n">
-        <v>421.3746948242188</v>
+        <v>202.378662109375</v>
       </c>
       <c r="HU2" t="n">
-        <v>426.9909362792969</v>
+        <v>210.8507080078125</v>
       </c>
       <c r="HV2" t="n">
-        <v>432.0999145507812</v>
+        <v>219.9313049316406</v>
       </c>
       <c r="HW2" t="n">
-        <v>435.3511962890625</v>
+        <v>230.8997344970703</v>
       </c>
       <c r="HX2" t="n">
-        <v>439.7686767578125</v>
+        <v>253.9763641357422</v>
       </c>
       <c r="HY2" t="n">
-        <v>441.4945678710938</v>
+        <v>280.5216979980469</v>
       </c>
       <c r="HZ2" t="n">
-        <v>444.148681640625</v>
+        <v>304.9202575683594</v>
       </c>
       <c r="IA2" t="n">
-        <v>445.749267578125</v>
+        <v>322.8675842285156</v>
       </c>
       <c r="IB2" t="n">
-        <v>445.7562561035156</v>
+        <v>338.1771850585938</v>
       </c>
       <c r="IC2" t="n">
-        <v>445.7998657226562</v>
+        <v>351.4703369140625</v>
       </c>
       <c r="ID2" t="n">
-        <v>444.7457885742188</v>
+        <v>358.356201171875</v>
       </c>
       <c r="IE2" t="n">
-        <v>440.7317504882812</v>
+        <v>363.1176452636719</v>
       </c>
       <c r="IF2" t="n">
-        <v>437.61865234375</v>
+        <v>368.66357421875</v>
       </c>
       <c r="IG2" t="n">
-        <v>433.3552551269531</v>
+        <v>370.2083740234375</v>
       </c>
       <c r="IH2" t="n">
-        <v>427.6994323730469</v>
+        <v>370.4072570800781</v>
       </c>
       <c r="II2" t="n">
-        <v>419.6007690429688</v>
+        <v>369.4563598632812</v>
       </c>
       <c r="IJ2" t="n">
-        <v>412.3226928710938</v>
+        <v>366.0757446289062</v>
       </c>
       <c r="IK2" t="n">
-        <v>399.984375</v>
+        <v>360.9709167480469</v>
       </c>
       <c r="IL2" t="n">
-        <v>394.3769836425781</v>
+        <v>353.1787719726562</v>
       </c>
       <c r="IM2" t="n">
-        <v>384.4529724121094</v>
+        <v>344.5036010742188</v>
       </c>
       <c r="IN2" t="n">
-        <v>370.5963745117188</v>
+        <v>319.3710327148438</v>
       </c>
       <c r="IO2" t="n">
-        <v>362.967041015625</v>
+        <v>304.8435974121094</v>
       </c>
       <c r="IP2" t="n">
-        <v>358.9801635742188</v>
+        <v>295.0570373535156</v>
       </c>
       <c r="IQ2" t="n">
-        <v>347.3222045898438</v>
+        <v>272.0055541992188</v>
       </c>
       <c r="IR2" t="n">
-        <v>339.1259155273438</v>
+        <v>266.6832580566406</v>
       </c>
       <c r="IS2" t="n">
-        <v>335.7178344726562</v>
+        <v>259.9023742675781</v>
       </c>
       <c r="IT2" t="n">
-        <v>327.5960693359375</v>
+        <v>257.0018615722656</v>
       </c>
       <c r="IU2" t="n">
-        <v>323.1904907226562</v>
+        <v>253.2108917236328</v>
       </c>
       <c r="IV2" t="n">
-        <v>321.7234497070312</v>
+        <v>248.5727233886719</v>
       </c>
       <c r="IW2" t="n">
-        <v>321.1473999023438</v>
+        <v>243.5431671142578</v>
       </c>
       <c r="IX2" t="n">
-        <v>319.6897277832031</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>319.6600952148438</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>320.2633056640625</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>322.5914916992188</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>325.1510009765625</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>328.5479431152344</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>333.6132202148438</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>342.20166015625</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>348.6602783203125</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>356.8399353027344</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>364.0247192382812</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>369.94287109375</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>374.3377685546875</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>380.5270080566406</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>387.9088745117188</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>390.7069702148438</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>395.71630859375</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>401.0125122070312</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>403.9588928222656</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>406.238037109375</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>408.4066162109375</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>410.0824279785156</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>411.1107788085938</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>412.3844909667969</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>413.183837890625</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>413.3671875</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>413.566650390625</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>413.9367980957031</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>414.2490844726562</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>414.5410766601562</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>414.8498840332031</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>414.9614868164062</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>414.9835815429688</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>414.8642578125</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>414.529052734375</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>414.4721069335938</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>414.3631591796875</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>414.3052673339844</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>414.2744445800781</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>414.2669372558594</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>414.2551879882812</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>414.24560546875</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>414.2421875</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>414.27001953125</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>414.3103637695312</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>414.4365234375</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>414.7779846191406</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>416.3873291015625</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>417.9631958007812</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>418.1255493164062</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>418.2001037597656</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>418.248046875</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>418.4099731445312</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>418.6027526855469</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>418.9590454101562</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>420.6220092773438</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>422.8551635742188</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>423.7845458984375</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>425.2648315429688</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>425.83447265625</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>425.3587646484375</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>426.6896057128906</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>427.6500854492188</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>431.273681640625</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>434.7226257324219</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>438.4418334960938</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>440.9580078125</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>442.6113891601562</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>444.5895080566406</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>447.3150634765625</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>453.2865905761719</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>458.9818725585938</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>463.61181640625</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>466.1985473632812</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>468.5739135742188</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>465.3749389648438</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>456.803955078125</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>450.6988525390625</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>446.0209655761719</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>437.0043334960938</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>423.1191711425781</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>407.9288024902344</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>391.5914916992188</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>372.3004455566406</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>345.7986145019531</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>317.1184387207031</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>299.8283996582031</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>284.5804748535156</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>285.3945922851562</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>288.31396484375</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>312.7766723632812</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>331.3255310058594</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>341.0583801269531</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>357.0884704589844</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>366.5552368164062</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>374.6211242675781</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>380.3334045410156</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>381.2562561035156</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>380.2536010742188</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>377.5094604492188</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>372.2687377929688</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>375.5376586914062</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>367.7225036621094</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>355.0726928710938</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>349.9219055175781</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>348.7569885253906</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>346.6259765625</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>346.4042358398438</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>346.410400390625</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>346.5701904296875</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>351.8442993164062</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>356.33544921875</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>358.6676025390625</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>360.7937316894531</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>361.5758972167969</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>361.9243774414062</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>362.5142822265625</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>362.6991271972656</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>362.9273071289062</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>363.2125549316406</v>
+        <v>243.0662231445312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97.47073364257812</v>
+        <v>99.04967498779297</v>
       </c>
       <c r="B3" t="n">
-        <v>97.24702453613281</v>
+        <v>102.0940322875977</v>
       </c>
       <c r="C3" t="n">
-        <v>97.46070861816406</v>
+        <v>104.8425445556641</v>
       </c>
       <c r="D3" t="n">
-        <v>98.34130859375</v>
+        <v>107.366325378418</v>
       </c>
       <c r="E3" t="n">
-        <v>100.5584411621094</v>
+        <v>109.3986053466797</v>
       </c>
       <c r="F3" t="n">
-        <v>102.8681335449219</v>
+        <v>112.743522644043</v>
       </c>
       <c r="G3" t="n">
-        <v>105.6152038574219</v>
+        <v>116.8106460571289</v>
       </c>
       <c r="H3" t="n">
-        <v>108.5658569335938</v>
+        <v>121.311653137207</v>
       </c>
       <c r="I3" t="n">
-        <v>110.8385696411133</v>
+        <v>127.1066131591797</v>
       </c>
       <c r="J3" t="n">
-        <v>112.7997436523438</v>
+        <v>132.7123870849609</v>
       </c>
       <c r="K3" t="n">
-        <v>113.9957962036133</v>
+        <v>138.1926116943359</v>
       </c>
       <c r="L3" t="n">
-        <v>114.4095153808594</v>
+        <v>143.852783203125</v>
       </c>
       <c r="M3" t="n">
-        <v>115.5044174194336</v>
+        <v>148.9174652099609</v>
       </c>
       <c r="N3" t="n">
-        <v>113.3759231567383</v>
+        <v>153.2307739257812</v>
       </c>
       <c r="O3" t="n">
-        <v>122.4186553955078</v>
+        <v>181.1236877441406</v>
       </c>
       <c r="P3" t="n">
-        <v>121.8849868774414</v>
+        <v>181.96337890625</v>
       </c>
       <c r="Q3" t="n">
-        <v>122.263801574707</v>
+        <v>183.1423492431641</v>
       </c>
       <c r="R3" t="n">
-        <v>123.4013824462891</v>
+        <v>186.7760009765625</v>
       </c>
       <c r="S3" t="n">
-        <v>125.8005981445312</v>
+        <v>189.6150207519531</v>
       </c>
       <c r="T3" t="n">
-        <v>127.6296920776367</v>
+        <v>192.0125885009766</v>
       </c>
       <c r="U3" t="n">
-        <v>129.6724700927734</v>
+        <v>194.0682983398438</v>
       </c>
       <c r="V3" t="n">
-        <v>134.2317504882812</v>
+        <v>195.7415008544922</v>
       </c>
       <c r="W3" t="n">
-        <v>138.3996429443359</v>
+        <v>198.5929565429688</v>
       </c>
       <c r="X3" t="n">
-        <v>142.2803497314453</v>
+        <v>202.2104644775391</v>
       </c>
       <c r="Y3" t="n">
-        <v>146.9847564697266</v>
+        <v>204.7586822509766</v>
       </c>
       <c r="Z3" t="n">
-        <v>150.9021759033203</v>
+        <v>206.1642608642578</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.2662811279297</v>
+        <v>207.4031982421875</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.117431640625</v>
+        <v>208.2120666503906</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.0292205810547</v>
+        <v>209.3596038818359</v>
       </c>
       <c r="AD3" t="n">
-        <v>159.9270629882812</v>
+        <v>211.3342132568359</v>
       </c>
       <c r="AE3" t="n">
-        <v>161.1277618408203</v>
+        <v>213.3721923828125</v>
       </c>
       <c r="AF3" t="n">
-        <v>161.1034088134766</v>
+        <v>214.7276458740234</v>
       </c>
       <c r="AG3" t="n">
-        <v>161.1212005615234</v>
+        <v>215.79833984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>160.0598449707031</v>
+        <v>216.1598358154297</v>
       </c>
       <c r="AI3" t="n">
-        <v>159.4976959228516</v>
+        <v>216.5554046630859</v>
       </c>
       <c r="AJ3" t="n">
-        <v>158.0113372802734</v>
+        <v>216.7355194091797</v>
       </c>
       <c r="AK3" t="n">
-        <v>157.5169982910156</v>
+        <v>217.289306640625</v>
       </c>
       <c r="AL3" t="n">
-        <v>157.5382843017578</v>
+        <v>218.1607513427734</v>
       </c>
       <c r="AM3" t="n">
-        <v>157.7077026367188</v>
+        <v>219.1716918945312</v>
       </c>
       <c r="AN3" t="n">
-        <v>157.7941436767578</v>
+        <v>220.6939239501953</v>
       </c>
       <c r="AO3" t="n">
-        <v>157.8811492919922</v>
+        <v>222.0753479003906</v>
       </c>
       <c r="AP3" t="n">
-        <v>157.9768981933594</v>
+        <v>223.0286560058594</v>
       </c>
       <c r="AQ3" t="n">
-        <v>158.0856170654297</v>
+        <v>223.5646057128906</v>
       </c>
       <c r="AR3" t="n">
-        <v>158.1696929931641</v>
+        <v>223.7765045166016</v>
       </c>
       <c r="AS3" t="n">
-        <v>158.2819061279297</v>
+        <v>223.7279052734375</v>
       </c>
       <c r="AT3" t="n">
-        <v>158.5187225341797</v>
+        <v>224.1412658691406</v>
       </c>
       <c r="AU3" t="n">
-        <v>159.5550079345703</v>
+        <v>224.447998046875</v>
       </c>
       <c r="AV3" t="n">
-        <v>159.9616851806641</v>
+        <v>224.8597869873047</v>
       </c>
       <c r="AW3" t="n">
-        <v>159.0584716796875</v>
+        <v>225.4418487548828</v>
       </c>
       <c r="AX3" t="n">
-        <v>158.3326568603516</v>
+        <v>225.7233734130859</v>
       </c>
       <c r="AY3" t="n">
-        <v>157.9396820068359</v>
+        <v>226.5512084960938</v>
       </c>
       <c r="AZ3" t="n">
-        <v>157.8663635253906</v>
+        <v>227.9821319580078</v>
       </c>
       <c r="BA3" t="n">
-        <v>157.7105865478516</v>
+        <v>229.1196594238281</v>
       </c>
       <c r="BB3" t="n">
-        <v>157.0711822509766</v>
+        <v>229.8989868164062</v>
       </c>
       <c r="BC3" t="n">
-        <v>155.8875579833984</v>
+        <v>229.8772430419922</v>
       </c>
       <c r="BD3" t="n">
-        <v>154.9111022949219</v>
+        <v>229.5037841796875</v>
       </c>
       <c r="BE3" t="n">
-        <v>154.1122894287109</v>
+        <v>228.8075866699219</v>
       </c>
       <c r="BF3" t="n">
-        <v>153.2498931884766</v>
+        <v>228.2042846679688</v>
       </c>
       <c r="BG3" t="n">
-        <v>151.8794403076172</v>
+        <v>227.7854309082031</v>
       </c>
       <c r="BH3" t="n">
-        <v>149.8550109863281</v>
+        <v>227.6168670654297</v>
       </c>
       <c r="BI3" t="n">
-        <v>147.7154846191406</v>
+        <v>227.7222595214844</v>
       </c>
       <c r="BJ3" t="n">
-        <v>145.7456512451172</v>
+        <v>227.896728515625</v>
       </c>
       <c r="BK3" t="n">
-        <v>143.9360046386719</v>
+        <v>227.8799133300781</v>
       </c>
       <c r="BL3" t="n">
-        <v>142.5591430664062</v>
+        <v>227.8476409912109</v>
       </c>
       <c r="BM3" t="n">
-        <v>141.6771240234375</v>
+        <v>227.8344421386719</v>
       </c>
       <c r="BN3" t="n">
-        <v>141.1697692871094</v>
+        <v>227.8826751708984</v>
       </c>
       <c r="BO3" t="n">
-        <v>139.7059173583984</v>
+        <v>227.9464874267578</v>
       </c>
       <c r="BP3" t="n">
-        <v>138.4713134765625</v>
+        <v>227.9466094970703</v>
       </c>
       <c r="BQ3" t="n">
-        <v>136.8215484619141</v>
+        <v>227.9457092285156</v>
       </c>
       <c r="BR3" t="n">
-        <v>135.4466247558594</v>
+        <v>227.9517822265625</v>
       </c>
       <c r="BS3" t="n">
-        <v>134.3993835449219</v>
+        <v>227.9583740234375</v>
       </c>
       <c r="BT3" t="n">
-        <v>133.6082916259766</v>
+        <v>227.9384460449219</v>
       </c>
       <c r="BU3" t="n">
-        <v>133.0201568603516</v>
+        <v>227.91162109375</v>
       </c>
       <c r="BV3" t="n">
-        <v>132.664794921875</v>
+        <v>227.5817260742188</v>
       </c>
       <c r="BW3" t="n">
-        <v>132.3343048095703</v>
+        <v>227.0896148681641</v>
       </c>
       <c r="BX3" t="n">
-        <v>131.9863128662109</v>
+        <v>226.6713714599609</v>
       </c>
       <c r="BY3" t="n">
-        <v>130.2394561767578</v>
+        <v>226.6557922363281</v>
       </c>
       <c r="BZ3" t="n">
-        <v>128.9450988769531</v>
+        <v>226.9127502441406</v>
       </c>
       <c r="CA3" t="n">
-        <v>128.3211059570312</v>
+        <v>227.1618804931641</v>
       </c>
       <c r="CB3" t="n">
-        <v>128.6515808105469</v>
+        <v>227.4280548095703</v>
       </c>
       <c r="CC3" t="n">
-        <v>129.0734252929688</v>
+        <v>227.6506042480469</v>
       </c>
       <c r="CD3" t="n">
-        <v>129.1921844482422</v>
+        <v>227.8595581054688</v>
       </c>
       <c r="CE3" t="n">
-        <v>129.2485198974609</v>
+        <v>227.9603881835938</v>
       </c>
       <c r="CF3" t="n">
-        <v>128.9987487792969</v>
+        <v>227.9730682373047</v>
       </c>
       <c r="CG3" t="n">
-        <v>128.8765258789062</v>
+        <v>227.9618377685547</v>
       </c>
       <c r="CH3" t="n">
-        <v>127.7362365722656</v>
+        <v>227.9202880859375</v>
       </c>
       <c r="CI3" t="n">
-        <v>126.8950500488281</v>
+        <v>227.7923889160156</v>
       </c>
       <c r="CJ3" t="n">
-        <v>126.3943328857422</v>
+        <v>227.7369842529297</v>
       </c>
       <c r="CK3" t="n">
-        <v>125.9777374267578</v>
+        <v>227.1827239990234</v>
       </c>
       <c r="CL3" t="n">
-        <v>125.5551300048828</v>
+        <v>226.8016967773438</v>
       </c>
       <c r="CM3" t="n">
-        <v>125.0760269165039</v>
+        <v>226.4941253662109</v>
       </c>
       <c r="CN3" t="n">
-        <v>124.1996231079102</v>
+        <v>226.2489776611328</v>
       </c>
       <c r="CO3" t="n">
-        <v>123.904052734375</v>
+        <v>225.979736328125</v>
       </c>
       <c r="CP3" t="n">
-        <v>123.6117858886719</v>
+        <v>225.7366943359375</v>
       </c>
       <c r="CQ3" t="n">
-        <v>123.4215087890625</v>
+        <v>225.8117218017578</v>
       </c>
       <c r="CR3" t="n">
-        <v>123.2731094360352</v>
+        <v>225.8651580810547</v>
       </c>
       <c r="CS3" t="n">
-        <v>123.1394729614258</v>
+        <v>225.8868560791016</v>
       </c>
       <c r="CT3" t="n">
-        <v>123.1186752319336</v>
+        <v>225.9226226806641</v>
       </c>
       <c r="CU3" t="n">
-        <v>123.124382019043</v>
+        <v>225.93603515625</v>
       </c>
       <c r="CV3" t="n">
-        <v>123.3814544677734</v>
+        <v>225.9081573486328</v>
       </c>
       <c r="CW3" t="n">
-        <v>123.4971542358398</v>
+        <v>225.8826904296875</v>
       </c>
       <c r="CX3" t="n">
-        <v>124.8528213500977</v>
+        <v>225.8434600830078</v>
       </c>
       <c r="CY3" t="n">
-        <v>125.1664810180664</v>
+        <v>225.7678375244141</v>
       </c>
       <c r="CZ3" t="n">
-        <v>124.4113845825195</v>
+        <v>225.7405548095703</v>
       </c>
       <c r="DA3" t="n">
-        <v>124.1044921875</v>
+        <v>225.7179718017578</v>
       </c>
       <c r="DB3" t="n">
-        <v>123.8918762207031</v>
+        <v>225.7036590576172</v>
       </c>
       <c r="DC3" t="n">
-        <v>123.6020278930664</v>
+        <v>225.6916961669922</v>
       </c>
       <c r="DD3" t="n">
-        <v>123.4360733032227</v>
+        <v>225.6821136474609</v>
       </c>
       <c r="DE3" t="n">
-        <v>123.2381591796875</v>
+        <v>225.7068634033203</v>
       </c>
       <c r="DF3" t="n">
-        <v>123.6317977905273</v>
+        <v>225.8106231689453</v>
       </c>
       <c r="DG3" t="n">
-        <v>123.7958374023438</v>
+        <v>226.0421752929688</v>
       </c>
       <c r="DH3" t="n">
-        <v>124.2394104003906</v>
+        <v>226.4507598876953</v>
       </c>
       <c r="DI3" t="n">
-        <v>124.3916244506836</v>
+        <v>227.0124664306641</v>
       </c>
       <c r="DJ3" t="n">
-        <v>124.7263641357422</v>
+        <v>227.3895721435547</v>
       </c>
       <c r="DK3" t="n">
-        <v>124.9616317749023</v>
+        <v>227.683837890625</v>
       </c>
       <c r="DL3" t="n">
-        <v>125.1105041503906</v>
+        <v>227.6603698730469</v>
       </c>
       <c r="DM3" t="n">
-        <v>125.2766265869141</v>
+        <v>227.6529541015625</v>
       </c>
       <c r="DN3" t="n">
-        <v>125.4300537109375</v>
+        <v>227.76171875</v>
       </c>
       <c r="DO3" t="n">
-        <v>125.5569381713867</v>
+        <v>227.8840942382812</v>
       </c>
       <c r="DP3" t="n">
-        <v>125.7545623779297</v>
+        <v>227.9228210449219</v>
       </c>
       <c r="DQ3" t="n">
-        <v>126.9079132080078</v>
+        <v>227.9785308837891</v>
       </c>
       <c r="DR3" t="n">
-        <v>127.7041015625</v>
+        <v>228.0353393554688</v>
       </c>
       <c r="DS3" t="n">
-        <v>128.188720703125</v>
+        <v>228.0821228027344</v>
       </c>
       <c r="DT3" t="n">
-        <v>128.451416015625</v>
+        <v>228.26416015625</v>
       </c>
       <c r="DU3" t="n">
-        <v>129.0624694824219</v>
+        <v>228.2481842041016</v>
       </c>
       <c r="DV3" t="n">
-        <v>130.0341033935547</v>
+        <v>227.9904022216797</v>
       </c>
       <c r="DW3" t="n">
-        <v>133.3186187744141</v>
+        <v>228.0500183105469</v>
       </c>
       <c r="DX3" t="n">
-        <v>134.6928100585938</v>
+        <v>228.2486877441406</v>
       </c>
       <c r="DY3" t="n">
-        <v>136.8751068115234</v>
+        <v>228.6512451171875</v>
       </c>
       <c r="DZ3" t="n">
-        <v>141.04345703125</v>
+        <v>228.7070465087891</v>
       </c>
       <c r="EA3" t="n">
-        <v>143.0089263916016</v>
+        <v>228.5995483398438</v>
       </c>
       <c r="EB3" t="n">
-        <v>146.8425903320312</v>
+        <v>227.9703369140625</v>
       </c>
       <c r="EC3" t="n">
-        <v>149.2753143310547</v>
+        <v>227.5998992919922</v>
       </c>
       <c r="ED3" t="n">
-        <v>152.4344940185547</v>
+        <v>227.0798034667969</v>
       </c>
       <c r="EE3" t="n">
-        <v>156.4925537109375</v>
+        <v>227.0159912109375</v>
       </c>
       <c r="EF3" t="n">
-        <v>162.4588775634766</v>
+        <v>227.4233703613281</v>
       </c>
       <c r="EG3" t="n">
-        <v>165.2957763671875</v>
+        <v>227.6797332763672</v>
       </c>
       <c r="EH3" t="n">
-        <v>166.1644744873047</v>
+        <v>228.0696716308594</v>
       </c>
       <c r="EI3" t="n">
-        <v>167.5829925537109</v>
+        <v>228.1464385986328</v>
       </c>
       <c r="EJ3" t="n">
-        <v>167.4696197509766</v>
+        <v>228.2098388671875</v>
       </c>
       <c r="EK3" t="n">
-        <v>167.0704803466797</v>
+        <v>228.5546722412109</v>
       </c>
       <c r="EL3" t="n">
-        <v>166.8476257324219</v>
+        <v>228.421630859375</v>
       </c>
       <c r="EM3" t="n">
-        <v>166.9279632568359</v>
+        <v>228.1229095458984</v>
       </c>
       <c r="EN3" t="n">
-        <v>166.4958648681641</v>
+        <v>227.6968841552734</v>
       </c>
       <c r="EO3" t="n">
-        <v>167.2770385742188</v>
+        <v>227.32421875</v>
       </c>
       <c r="EP3" t="n">
-        <v>168.6103820800781</v>
+        <v>227.1747894287109</v>
       </c>
       <c r="EQ3" t="n">
-        <v>176.0776062011719</v>
+        <v>226.7150421142578</v>
       </c>
       <c r="ER3" t="n">
-        <v>178.1240386962891</v>
+        <v>225.5513763427734</v>
       </c>
       <c r="ES3" t="n">
-        <v>181.7328796386719</v>
+        <v>224.8225555419922</v>
       </c>
       <c r="ET3" t="n">
-        <v>187.2393798828125</v>
+        <v>224.3535614013672</v>
       </c>
       <c r="EU3" t="n">
-        <v>189.0786590576172</v>
+        <v>224.0512390136719</v>
       </c>
       <c r="EV3" t="n">
-        <v>189.4674682617188</v>
+        <v>223.8096160888672</v>
       </c>
       <c r="EW3" t="n">
-        <v>189.8847808837891</v>
+        <v>223.6502990722656</v>
       </c>
       <c r="EX3" t="n">
-        <v>192.7491455078125</v>
+        <v>223.1451721191406</v>
       </c>
       <c r="EY3" t="n">
-        <v>194.4113159179688</v>
+        <v>222.6126251220703</v>
       </c>
       <c r="EZ3" t="n">
-        <v>195.4944305419922</v>
+        <v>221.0456085205078</v>
       </c>
       <c r="FA3" t="n">
-        <v>198.2439422607422</v>
+        <v>220.5684661865234</v>
       </c>
       <c r="FB3" t="n">
-        <v>200.2382354736328</v>
+        <v>220.0210723876953</v>
       </c>
       <c r="FC3" t="n">
-        <v>204.934814453125</v>
+        <v>219.0957336425781</v>
       </c>
       <c r="FD3" t="n">
-        <v>207.6873016357422</v>
+        <v>216.3287658691406</v>
       </c>
       <c r="FE3" t="n">
-        <v>209.2180633544922</v>
+        <v>215.1187591552734</v>
       </c>
       <c r="FF3" t="n">
-        <v>210.8335723876953</v>
+        <v>212.0741119384766</v>
       </c>
       <c r="FG3" t="n">
-        <v>213.7493743896484</v>
+        <v>209.6933746337891</v>
       </c>
       <c r="FH3" t="n">
-        <v>214.6909027099609</v>
+        <v>207.7062530517578</v>
       </c>
       <c r="FI3" t="n">
-        <v>217.9810028076172</v>
+        <v>207.4198303222656</v>
       </c>
       <c r="FJ3" t="n">
-        <v>221.0710601806641</v>
+        <v>205.7651062011719</v>
       </c>
       <c r="FK3" t="n">
-        <v>225.0918579101562</v>
+        <v>202.4826049804688</v>
       </c>
       <c r="FL3" t="n">
-        <v>225.7740020751953</v>
+        <v>201.5378570556641</v>
       </c>
       <c r="FM3" t="n">
-        <v>226.0079040527344</v>
+        <v>199.5645751953125</v>
       </c>
       <c r="FN3" t="n">
-        <v>225.9171142578125</v>
+        <v>197.4051208496094</v>
       </c>
       <c r="FO3" t="n">
-        <v>226.0532836914062</v>
+        <v>193.6855621337891</v>
       </c>
       <c r="FP3" t="n">
-        <v>226.5547485351562</v>
+        <v>190.9873504638672</v>
       </c>
       <c r="FQ3" t="n">
-        <v>227.0079345703125</v>
+        <v>189.8526153564453</v>
       </c>
       <c r="FR3" t="n">
-        <v>227.9424438476562</v>
+        <v>188.1945495605469</v>
       </c>
       <c r="FS3" t="n">
-        <v>229.51904296875</v>
+        <v>187.3827514648438</v>
       </c>
       <c r="FT3" t="n">
-        <v>229.4561462402344</v>
+        <v>184.8516235351562</v>
       </c>
       <c r="FU3" t="n">
-        <v>229.4250946044922</v>
+        <v>182.5706634521484</v>
       </c>
       <c r="FV3" t="n">
-        <v>231.6970520019531</v>
+        <v>180.6849670410156</v>
       </c>
       <c r="FW3" t="n">
-        <v>235.5435943603516</v>
+        <v>171.2241821289062</v>
       </c>
       <c r="FX3" t="n">
-        <v>236.9494476318359</v>
+        <v>166.9967498779297</v>
       </c>
       <c r="FY3" t="n">
-        <v>237.5788726806641</v>
+        <v>163.2533264160156</v>
       </c>
       <c r="FZ3" t="n">
-        <v>238.0894775390625</v>
+        <v>161.2608337402344</v>
       </c>
       <c r="GA3" t="n">
-        <v>238.152587890625</v>
+        <v>155.8934631347656</v>
       </c>
       <c r="GB3" t="n">
-        <v>237.9821624755859</v>
+        <v>153.9669342041016</v>
       </c>
       <c r="GC3" t="n">
-        <v>237.3545379638672</v>
+        <v>152.3264312744141</v>
       </c>
       <c r="GD3" t="n">
-        <v>236.1663208007812</v>
+        <v>151.0613250732422</v>
       </c>
       <c r="GE3" t="n">
-        <v>235.7061309814453</v>
+        <v>146.4322204589844</v>
       </c>
       <c r="GF3" t="n">
-        <v>234.8183441162109</v>
+        <v>143.1228790283203</v>
       </c>
       <c r="GG3" t="n">
-        <v>234.2028503417969</v>
+        <v>141.5301818847656</v>
       </c>
       <c r="GH3" t="n">
-        <v>233.624755859375</v>
+        <v>137.4020385742188</v>
       </c>
       <c r="GI3" t="n">
-        <v>233.6985931396484</v>
+        <v>135.4181060791016</v>
       </c>
       <c r="GJ3" t="n">
-        <v>233.5351867675781</v>
+        <v>134.4712677001953</v>
       </c>
       <c r="GK3" t="n">
-        <v>233.0786895751953</v>
+        <v>131.5482330322266</v>
       </c>
       <c r="GL3" t="n">
-        <v>231.5325927734375</v>
+        <v>129.0815582275391</v>
       </c>
       <c r="GM3" t="n">
-        <v>230.6019287109375</v>
+        <v>123.8494491577148</v>
       </c>
       <c r="GN3" t="n">
-        <v>230.6065216064453</v>
+        <v>120.366584777832</v>
       </c>
       <c r="GO3" t="n">
-        <v>231.3500518798828</v>
+        <v>107.2404861450195</v>
       </c>
       <c r="GP3" t="n">
-        <v>231.0877990722656</v>
+        <v>94.79239654541016</v>
       </c>
       <c r="GQ3" t="n">
-        <v>230.69873046875</v>
+        <v>89.89176177978516</v>
       </c>
       <c r="GR3" t="n">
-        <v>230.9369812011719</v>
+        <v>77.98712158203125</v>
       </c>
       <c r="GS3" t="n">
-        <v>230.7437896728516</v>
+        <v>72.72074127197266</v>
       </c>
       <c r="GT3" t="n">
-        <v>229.9813537597656</v>
+        <v>67.75637817382812</v>
       </c>
       <c r="GU3" t="n">
-        <v>228.2145385742188</v>
+        <v>59.75308990478516</v>
       </c>
       <c r="GV3" t="n">
-        <v>227.6738433837891</v>
+        <v>52.00132369995117</v>
       </c>
       <c r="GW3" t="n">
-        <v>227.5477447509766</v>
+        <v>45.45270919799805</v>
       </c>
       <c r="GX3" t="n">
-        <v>227.2507019042969</v>
+        <v>42.02495956420898</v>
       </c>
       <c r="GY3" t="n">
-        <v>226.5602264404297</v>
+        <v>37.21161270141602</v>
       </c>
       <c r="GZ3" t="n">
-        <v>225.5713195800781</v>
+        <v>34.75228118896484</v>
       </c>
       <c r="HA3" t="n">
-        <v>225.1432342529297</v>
+        <v>43.53718185424805</v>
       </c>
       <c r="HB3" t="n">
-        <v>225.1274719238281</v>
+        <v>50.34968566894531</v>
       </c>
       <c r="HC3" t="n">
-        <v>224.7392425537109</v>
+        <v>57.81494140625</v>
       </c>
       <c r="HD3" t="n">
-        <v>224.5887451171875</v>
+        <v>63.27245330810547</v>
       </c>
       <c r="HE3" t="n">
-        <v>224.8785400390625</v>
+        <v>60.48428344726562</v>
       </c>
       <c r="HF3" t="n">
-        <v>224.0095367431641</v>
+        <v>54.77629089355469</v>
       </c>
       <c r="HG3" t="n">
-        <v>224.0143737792969</v>
+        <v>48.24631881713867</v>
       </c>
       <c r="HH3" t="n">
-        <v>224.8060302734375</v>
+        <v>44.25358200073242</v>
       </c>
       <c r="HI3" t="n">
-        <v>224.6557769775391</v>
+        <v>50.60846328735352</v>
       </c>
       <c r="HJ3" t="n">
-        <v>224.9874420166016</v>
+        <v>58.18190002441406</v>
       </c>
       <c r="HK3" t="n">
-        <v>225.5873413085938</v>
+        <v>62.16386413574219</v>
       </c>
       <c r="HL3" t="n">
-        <v>225.0020599365234</v>
+        <v>68.32158660888672</v>
       </c>
       <c r="HM3" t="n">
-        <v>227.3098602294922</v>
+        <v>71.50375366210938</v>
       </c>
       <c r="HN3" t="n">
-        <v>229.3363800048828</v>
+        <v>54.65952682495117</v>
       </c>
       <c r="HO3" t="n">
-        <v>228.244140625</v>
+        <v>37.92388916015625</v>
       </c>
       <c r="HP3" t="n">
-        <v>226.8932189941406</v>
+        <v>34.69787216186523</v>
       </c>
       <c r="HQ3" t="n">
-        <v>226.4631958007812</v>
+        <v>39.62072372436523</v>
       </c>
       <c r="HR3" t="n">
-        <v>224.0871734619141</v>
+        <v>49.23892974853516</v>
       </c>
       <c r="HS3" t="n">
-        <v>222.9769439697266</v>
+        <v>62.55717468261719</v>
       </c>
       <c r="HT3" t="n">
-        <v>222.6911163330078</v>
+        <v>77.35347747802734</v>
       </c>
       <c r="HU3" t="n">
-        <v>222.6483917236328</v>
+        <v>96.51260375976562</v>
       </c>
       <c r="HV3" t="n">
-        <v>222.4348907470703</v>
+        <v>123.5276260375977</v>
       </c>
       <c r="HW3" t="n">
-        <v>222.5533294677734</v>
+        <v>156.1047668457031</v>
       </c>
       <c r="HX3" t="n">
-        <v>222.77685546875</v>
+        <v>179.0364837646484</v>
       </c>
       <c r="HY3" t="n">
-        <v>222.8837127685547</v>
+        <v>192.4965667724609</v>
       </c>
       <c r="HZ3" t="n">
-        <v>223.0548400878906</v>
+        <v>202.7710723876953</v>
       </c>
       <c r="IA3" t="n">
-        <v>223.3794097900391</v>
+        <v>208.8988800048828</v>
       </c>
       <c r="IB3" t="n">
-        <v>223.5261993408203</v>
+        <v>211.2921752929688</v>
       </c>
       <c r="IC3" t="n">
-        <v>224.2978668212891</v>
+        <v>217.7365875244141</v>
       </c>
       <c r="ID3" t="n">
-        <v>226.1329803466797</v>
+        <v>224.0576782226562</v>
       </c>
       <c r="IE3" t="n">
-        <v>227.3186950683594</v>
+        <v>228.6342620849609</v>
       </c>
       <c r="IF3" t="n">
-        <v>228.0782318115234</v>
+        <v>235.6421508789062</v>
       </c>
       <c r="IG3" t="n">
-        <v>228.4147796630859</v>
+        <v>236.9006958007812</v>
       </c>
       <c r="IH3" t="n">
-        <v>228.4308166503906</v>
+        <v>237.23291015625</v>
       </c>
       <c r="II3" t="n">
-        <v>227.8717193603516</v>
+        <v>236.9253997802734</v>
       </c>
       <c r="IJ3" t="n">
-        <v>228.4832916259766</v>
+        <v>235.7127380371094</v>
       </c>
       <c r="IK3" t="n">
-        <v>228.3350067138672</v>
+        <v>230.7249145507812</v>
       </c>
       <c r="IL3" t="n">
-        <v>228.5221099853516</v>
+        <v>224.1985778808594</v>
       </c>
       <c r="IM3" t="n">
-        <v>229.4040069580078</v>
+        <v>220.6809387207031</v>
       </c>
       <c r="IN3" t="n">
-        <v>231.4282989501953</v>
+        <v>206.6243133544922</v>
       </c>
       <c r="IO3" t="n">
-        <v>231.5501403808594</v>
+        <v>199.2131805419922</v>
       </c>
       <c r="IP3" t="n">
-        <v>231.35791015625</v>
+        <v>197.7871398925781</v>
       </c>
       <c r="IQ3" t="n">
-        <v>229.6552429199219</v>
+        <v>195.5773468017578</v>
       </c>
       <c r="IR3" t="n">
-        <v>228.4924011230469</v>
+        <v>194.5267028808594</v>
       </c>
       <c r="IS3" t="n">
-        <v>228.3515319824219</v>
+        <v>193.492431640625</v>
       </c>
       <c r="IT3" t="n">
-        <v>227.2401123046875</v>
+        <v>192.5822143554688</v>
       </c>
       <c r="IU3" t="n">
-        <v>227.4380187988281</v>
+        <v>189.0579528808594</v>
       </c>
       <c r="IV3" t="n">
-        <v>229.1982574462891</v>
+        <v>182.6072692871094</v>
       </c>
       <c r="IW3" t="n">
-        <v>230.3023834228516</v>
+        <v>176.2011260986328</v>
       </c>
       <c r="IX3" t="n">
-        <v>230.4722137451172</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>230.3992614746094</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>230.1480865478516</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>229.6510467529297</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>228.5582733154297</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>229.6286926269531</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>229.9874267578125</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>230.4335174560547</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>229.6072082519531</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>227.8887786865234</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>227.3108215332031</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>227.3858489990234</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>227.3718109130859</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>226.8087615966797</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>224.9588928222656</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>224.2966003417969</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>223.828857421875</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>223.6396026611328</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>223.4773712158203</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>223.24072265625</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>222.6227264404297</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>222.5738525390625</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>223.2064819335938</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>223.34033203125</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>223.2706298828125</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>223.223388671875</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>223.1129455566406</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>222.9685516357422</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>222.9075775146484</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>222.8740234375</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>222.8293304443359</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>222.8200988769531</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>222.892578125</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>223.1419677734375</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>223.6585388183594</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>224.1165008544922</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>223.4184265136719</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>222.9382934570312</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>222.6943969726562</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>222.8694305419922</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>222.9880981445312</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>223.0959777832031</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>223.1540679931641</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>223.0805358886719</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>222.9502410888672</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>222.7670593261719</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>222.6668243408203</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>222.5974426269531</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>222.5938415527344</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>222.5481262207031</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>222.50927734375</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>222.50341796875</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>222.5025939941406</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>222.4187316894531</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>222.341064453125</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>222.7893829345703</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>223.0189514160156</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>222.9647979736328</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>222.2864379882812</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>221.4640502929688</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>216.8572540283203</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>215.5433349609375</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>214.9158477783203</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>209.9936218261719</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>201.6631317138672</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>192.1258544921875</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>187.0836181640625</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>182.1582336425781</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>173.0134735107422</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>167.2812805175781</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>159.9651184082031</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>153.3952331542969</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>146.9418792724609</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>138.6116638183594</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>117.5288772583008</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>101.3203887939453</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>81.25420379638672</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>65.781005859375</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>59.92726516723633</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>54.14231872558594</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>47.02163696289062</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>44.96836853027344</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>45.39985656738281</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>45.65673446655273</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>43.14047241210938</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>35.01362228393555</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>31.89925003051758</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>47.58513641357422</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>62.72541809082031</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>84.48262786865234</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>143.4652557373047</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>195.2648773193359</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>213.9703521728516</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>242.9043426513672</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>248.3902893066406</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>245.6420745849609</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>244.0951843261719</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>243.8663940429688</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>242.1440734863281</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>241.7641906738281</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>240.9395904541016</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>240.2155151367188</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>234.5744018554688</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>223.1166381835938</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>211.0504608154297</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>203.1570892333984</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>192.3766632080078</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>181.7604675292969</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>176.7850494384766</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>176.7367095947266</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>179.2896118164062</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>183.5119934082031</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>192.4738159179688</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>200.7572784423828</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>203.0743865966797</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>205.5684356689453</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>208.3633575439453</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>209.0383453369141</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>208.1096343994141</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>206.3009490966797</v>
+        <v>173.6490020751953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1040.416870117188</v>
+        <v>991.202880859375</v>
       </c>
       <c r="B4" t="n">
-        <v>1048.677612304688</v>
+        <v>1010.442749023438</v>
       </c>
       <c r="C4" t="n">
-        <v>1053.09326171875</v>
+        <v>1028.038696289062</v>
       </c>
       <c r="D4" t="n">
-        <v>1059.205078125</v>
+        <v>1044.413330078125</v>
       </c>
       <c r="E4" t="n">
-        <v>1066.119384765625</v>
+        <v>1060.70751953125</v>
       </c>
       <c r="F4" t="n">
-        <v>1074.606567382812</v>
+        <v>1084.152221679688</v>
       </c>
       <c r="G4" t="n">
-        <v>1085.83740234375</v>
+        <v>1112.3564453125</v>
       </c>
       <c r="H4" t="n">
-        <v>1098.088012695312</v>
+        <v>1142.18017578125</v>
       </c>
       <c r="I4" t="n">
-        <v>1107.135864257812</v>
+        <v>1171.544189453125</v>
       </c>
       <c r="J4" t="n">
-        <v>1115.372924804688</v>
+        <v>1200.202392578125</v>
       </c>
       <c r="K4" t="n">
-        <v>1123.229858398438</v>
+        <v>1229.258911132812</v>
       </c>
       <c r="L4" t="n">
-        <v>1129.773681640625</v>
+        <v>1259.635375976562</v>
       </c>
       <c r="M4" t="n">
-        <v>1204.598999023438</v>
+        <v>1292.015991210938</v>
       </c>
       <c r="N4" t="n">
-        <v>1214.4365234375</v>
+        <v>1324.040893554688</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.361694335938</v>
+        <v>1595.027099609375</v>
       </c>
       <c r="P4" t="n">
-        <v>1264.060302734375</v>
+        <v>1618.494506835938</v>
       </c>
       <c r="Q4" t="n">
-        <v>1271.239135742188</v>
+        <v>1637.726440429688</v>
       </c>
       <c r="R4" t="n">
-        <v>1280.572265625</v>
+        <v>1658.747680664062</v>
       </c>
       <c r="S4" t="n">
-        <v>1296.521484375</v>
+        <v>1681.200561523438</v>
       </c>
       <c r="T4" t="n">
-        <v>1312.736206054688</v>
+        <v>1707.66357421875</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.301147460938</v>
+        <v>1738.198608398438</v>
       </c>
       <c r="V4" t="n">
-        <v>1342.389038085938</v>
+        <v>1760.52099609375</v>
       </c>
       <c r="W4" t="n">
-        <v>1364.250854492188</v>
+        <v>1778.2412109375</v>
       </c>
       <c r="X4" t="n">
-        <v>1386.23193359375</v>
+        <v>1800.7841796875</v>
       </c>
       <c r="Y4" t="n">
-        <v>1407.7578125</v>
+        <v>1825.541625976562</v>
       </c>
       <c r="Z4" t="n">
-        <v>1424.383666992188</v>
+        <v>1848.06884765625</v>
       </c>
       <c r="AA4" t="n">
-        <v>1438.744995117188</v>
+        <v>1866.992065429688</v>
       </c>
       <c r="AB4" t="n">
-        <v>1452.872802734375</v>
+        <v>1883.74072265625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1462.462890625</v>
+        <v>1898.998901367188</v>
       </c>
       <c r="AD4" t="n">
-        <v>1473.329467773438</v>
+        <v>1916.19482421875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1485.142456054688</v>
+        <v>1936.244873046875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1494.27001953125</v>
+        <v>1959.680053710938</v>
       </c>
       <c r="AG4" t="n">
-        <v>1501.2216796875</v>
+        <v>1982.606811523438</v>
       </c>
       <c r="AH4" t="n">
-        <v>1504.270751953125</v>
+        <v>2008.16650390625</v>
       </c>
       <c r="AI4" t="n">
-        <v>1510.177612304688</v>
+        <v>2028.041381835938</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1513.620483398438</v>
+        <v>2040.634155273438</v>
       </c>
       <c r="AK4" t="n">
-        <v>1517.02001953125</v>
+        <v>2050.068603515625</v>
       </c>
       <c r="AL4" t="n">
-        <v>1518.501586914062</v>
+        <v>2060.240234375</v>
       </c>
       <c r="AM4" t="n">
-        <v>1519.946533203125</v>
+        <v>2067.916748046875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1521.015502929688</v>
+        <v>2077.1123046875</v>
       </c>
       <c r="AO4" t="n">
-        <v>1522.226318359375</v>
+        <v>2087.470458984375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1523.459716796875</v>
+        <v>2097.04248046875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1524.71630859375</v>
+        <v>2108.424560546875</v>
       </c>
       <c r="AR4" t="n">
-        <v>1525.791381835938</v>
+        <v>2118.118896484375</v>
       </c>
       <c r="AS4" t="n">
-        <v>1526.161010742188</v>
+        <v>2124.775390625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1525.672241210938</v>
+        <v>2129.224365234375</v>
       </c>
       <c r="AU4" t="n">
-        <v>1523.181518554688</v>
+        <v>2132.97021484375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1517.04931640625</v>
+        <v>2136.483154296875</v>
       </c>
       <c r="AW4" t="n">
-        <v>1504.602294921875</v>
+        <v>2142.54638671875</v>
       </c>
       <c r="AX4" t="n">
-        <v>1493.837524414062</v>
+        <v>2149.47705078125</v>
       </c>
       <c r="AY4" t="n">
-        <v>1484.867065429688</v>
+        <v>2158.1240234375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1477.500122070312</v>
+        <v>2164.853759765625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1469.01904296875</v>
+        <v>2172.31494140625</v>
       </c>
       <c r="BB4" t="n">
-        <v>1458.947509765625</v>
+        <v>2178.08740234375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1446.6298828125</v>
+        <v>2180.16064453125</v>
       </c>
       <c r="BD4" t="n">
-        <v>1438.247924804688</v>
+        <v>2182.40087890625</v>
       </c>
       <c r="BE4" t="n">
-        <v>1431.095336914062</v>
+        <v>2184.797607421875</v>
       </c>
       <c r="BF4" t="n">
-        <v>1423.434814453125</v>
+        <v>2186.953857421875</v>
       </c>
       <c r="BG4" t="n">
-        <v>1415.099609375</v>
+        <v>2188.310546875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1406.081298828125</v>
+        <v>2188.77783203125</v>
       </c>
       <c r="BI4" t="n">
-        <v>1397.9287109375</v>
+        <v>2191.49462890625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1390.572875976562</v>
+        <v>2196.1875</v>
       </c>
       <c r="BK4" t="n">
-        <v>1384.937744140625</v>
+        <v>2199.20263671875</v>
       </c>
       <c r="BL4" t="n">
-        <v>1378.572998046875</v>
+        <v>2198.98876953125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1373.246826171875</v>
+        <v>2199.152587890625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1365.006103515625</v>
+        <v>2199.756591796875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1353.153564453125</v>
+        <v>2200.873046875</v>
       </c>
       <c r="BP4" t="n">
-        <v>1347.422729492188</v>
+        <v>2201.21435546875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1342.6083984375</v>
+        <v>2201.540283203125</v>
       </c>
       <c r="BR4" t="n">
-        <v>1337.689453125</v>
+        <v>2201.95068359375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1334.485595703125</v>
+        <v>2202.3974609375</v>
       </c>
       <c r="BT4" t="n">
-        <v>1331.209594726562</v>
+        <v>2202.591796875</v>
       </c>
       <c r="BU4" t="n">
-        <v>1328.067504882812</v>
+        <v>2202.677978515625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1326.10986328125</v>
+        <v>2199.445068359375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1324.2763671875</v>
+        <v>2193.182373046875</v>
       </c>
       <c r="BX4" t="n">
-        <v>1322.33447265625</v>
+        <v>2185.36572265625</v>
       </c>
       <c r="BY4" t="n">
-        <v>1316.39111328125</v>
+        <v>2181.31201171875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1310.064819335938</v>
+        <v>2180.9921875</v>
       </c>
       <c r="CA4" t="n">
-        <v>1305.678955078125</v>
+        <v>2181.559814453125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1301.138061523438</v>
+        <v>2182.0166015625</v>
       </c>
       <c r="CC4" t="n">
-        <v>1297.504028320312</v>
+        <v>2182.51025390625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1292.943481445312</v>
+        <v>2182.969970703125</v>
       </c>
       <c r="CE4" t="n">
-        <v>1286.517578125</v>
+        <v>2183.1025390625</v>
       </c>
       <c r="CF4" t="n">
-        <v>1283.373046875</v>
+        <v>2183.4912109375</v>
       </c>
       <c r="CG4" t="n">
-        <v>1279.896118164062</v>
+        <v>2183.6953125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1275.202270507812</v>
+        <v>2183.91650390625</v>
       </c>
       <c r="CI4" t="n">
-        <v>1271.860717773438</v>
+        <v>2183.81591796875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1269.586059570312</v>
+        <v>2183.67724609375</v>
       </c>
       <c r="CK4" t="n">
-        <v>1268.271850585938</v>
+        <v>2178.820556640625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1267.546508789062</v>
+        <v>2175.286865234375</v>
       </c>
       <c r="CM4" t="n">
-        <v>1266.119262695312</v>
+        <v>2171.923095703125</v>
       </c>
       <c r="CN4" t="n">
-        <v>1264.423095703125</v>
+        <v>2168.677734375</v>
       </c>
       <c r="CO4" t="n">
-        <v>1263.960205078125</v>
+        <v>2164.545654296875</v>
       </c>
       <c r="CP4" t="n">
-        <v>1263.593139648438</v>
+        <v>2160.063232421875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1263.45361328125</v>
+        <v>2160.55810546875</v>
       </c>
       <c r="CR4" t="n">
-        <v>1263.481689453125</v>
+        <v>2161.503662109375</v>
       </c>
       <c r="CS4" t="n">
-        <v>1263.504028320312</v>
+        <v>2162.396484375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1263.512939453125</v>
+        <v>2163.501708984375</v>
       </c>
       <c r="CU4" t="n">
-        <v>1263.610717773438</v>
+        <v>2164.28564453125</v>
       </c>
       <c r="CV4" t="n">
-        <v>1264.983154296875</v>
+        <v>2164.522705078125</v>
       </c>
       <c r="CW4" t="n">
-        <v>1266.281005859375</v>
+        <v>2164.650390625</v>
       </c>
       <c r="CX4" t="n">
-        <v>1266.960083007812</v>
+        <v>2164.81201171875</v>
       </c>
       <c r="CY4" t="n">
-        <v>1266.575805664062</v>
+        <v>2164.792236328125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1267.628662109375</v>
+        <v>2164.743896484375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1267.937255859375</v>
+        <v>2164.690185546875</v>
       </c>
       <c r="DB4" t="n">
-        <v>1268.373657226562</v>
+        <v>2164.613525390625</v>
       </c>
       <c r="DC4" t="n">
-        <v>1269.091552734375</v>
+        <v>2164.53515625</v>
       </c>
       <c r="DD4" t="n">
-        <v>1269.840942382812</v>
+        <v>2164.447021484375</v>
       </c>
       <c r="DE4" t="n">
-        <v>1271.033447265625</v>
+        <v>2164.01220703125</v>
       </c>
       <c r="DF4" t="n">
-        <v>1272.878662109375</v>
+        <v>2163.413330078125</v>
       </c>
       <c r="DG4" t="n">
-        <v>1273.658081054688</v>
+        <v>2162.615966796875</v>
       </c>
       <c r="DH4" t="n">
-        <v>1275.631713867188</v>
+        <v>2162.833984375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1276.234008789062</v>
+        <v>2163.37158203125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1278.671020507812</v>
+        <v>2162.958251953125</v>
       </c>
       <c r="DK4" t="n">
-        <v>1281.432861328125</v>
+        <v>2159.854736328125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1282.590576171875</v>
+        <v>2158.017333984375</v>
       </c>
       <c r="DM4" t="n">
-        <v>1283.74462890625</v>
+        <v>2156.5673828125</v>
       </c>
       <c r="DN4" t="n">
-        <v>1284.994750976562</v>
+        <v>2155.555419921875</v>
       </c>
       <c r="DO4" t="n">
-        <v>1286.314331054688</v>
+        <v>2155.393798828125</v>
       </c>
       <c r="DP4" t="n">
-        <v>1288.311157226562</v>
+        <v>2155.30126953125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1297.30615234375</v>
+        <v>2155.188720703125</v>
       </c>
       <c r="DR4" t="n">
-        <v>1303.218017578125</v>
+        <v>2155.573974609375</v>
       </c>
       <c r="DS4" t="n">
-        <v>1307.459594726562</v>
+        <v>2155.98583984375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1311.7607421875</v>
+        <v>2158.780029296875</v>
       </c>
       <c r="DU4" t="n">
-        <v>1316.11865234375</v>
+        <v>2159.652587890625</v>
       </c>
       <c r="DV4" t="n">
-        <v>1318.882202148438</v>
+        <v>2162.07763671875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1327.683349609375</v>
+        <v>2165.0576171875</v>
       </c>
       <c r="DX4" t="n">
-        <v>1334.747924804688</v>
+        <v>2169.9306640625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1343.096435546875</v>
+        <v>2178.3974609375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1361.653442382812</v>
+        <v>2182.563232421875</v>
       </c>
       <c r="EA4" t="n">
-        <v>1370.287109375</v>
+        <v>2182.886962890625</v>
       </c>
       <c r="EB4" t="n">
-        <v>1383.3017578125</v>
+        <v>2177.55712890625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1391.311767578125</v>
+        <v>2172.711181640625</v>
       </c>
       <c r="ED4" t="n">
-        <v>1402.276977539062</v>
+        <v>2162.102294921875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1418.60986328125</v>
+        <v>2157.89306640625</v>
       </c>
       <c r="EF4" t="n">
-        <v>1436.989379882812</v>
+        <v>2157.525146484375</v>
       </c>
       <c r="EG4" t="n">
-        <v>1454.875244140625</v>
+        <v>2158.704345703125</v>
       </c>
       <c r="EH4" t="n">
-        <v>1464.353149414062</v>
+        <v>2161.43017578125</v>
       </c>
       <c r="EI4" t="n">
-        <v>1480.591430664062</v>
+        <v>2162.39697265625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1489.83251953125</v>
+        <v>2163.7294921875</v>
       </c>
       <c r="EK4" t="n">
-        <v>1511.759643554688</v>
+        <v>2161.885498046875</v>
       </c>
       <c r="EL4" t="n">
-        <v>1526.106201171875</v>
+        <v>2156.596923828125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1548.781005859375</v>
+        <v>2152.641357421875</v>
       </c>
       <c r="EN4" t="n">
-        <v>1555.89208984375</v>
+        <v>2148.667236328125</v>
       </c>
       <c r="EO4" t="n">
-        <v>1575.851196289062</v>
+        <v>2146.40234375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1587.49658203125</v>
+        <v>2146.0576171875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1637.080688476562</v>
+        <v>2144.56103515625</v>
       </c>
       <c r="ER4" t="n">
-        <v>1650.455810546875</v>
+        <v>2132.68505859375</v>
       </c>
       <c r="ES4" t="n">
-        <v>1674.675537109375</v>
+        <v>2121.4658203125</v>
       </c>
       <c r="ET4" t="n">
-        <v>1713.359985351562</v>
+        <v>2111.984619140625</v>
       </c>
       <c r="EU4" t="n">
-        <v>1729.689575195312</v>
+        <v>2100.851806640625</v>
       </c>
       <c r="EV4" t="n">
-        <v>1742.802490234375</v>
+        <v>2090.00341796875</v>
       </c>
       <c r="EW4" t="n">
-        <v>1769.040893554688</v>
+        <v>2086.93505859375</v>
       </c>
       <c r="EX4" t="n">
-        <v>1807.652099609375</v>
+        <v>2075.00927734375</v>
       </c>
       <c r="EY4" t="n">
-        <v>1826.760986328125</v>
+        <v>2065.559326171875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1845.795288085938</v>
+        <v>2045.54736328125</v>
       </c>
       <c r="FA4" t="n">
-        <v>1884.93310546875</v>
+        <v>2038.34326171875</v>
       </c>
       <c r="FB4" t="n">
-        <v>1906.647216796875</v>
+        <v>2031.120239257812</v>
       </c>
       <c r="FC4" t="n">
-        <v>1958.015014648438</v>
+        <v>1997.419677734375</v>
       </c>
       <c r="FD4" t="n">
-        <v>2013.82861328125</v>
+        <v>1956.910888671875</v>
       </c>
       <c r="FE4" t="n">
-        <v>2036.9541015625</v>
+        <v>1939.3349609375</v>
       </c>
       <c r="FF4" t="n">
-        <v>2055.15673828125</v>
+        <v>1909.7646484375</v>
       </c>
       <c r="FG4" t="n">
-        <v>2086.8515625</v>
+        <v>1897.490600585938</v>
       </c>
       <c r="FH4" t="n">
-        <v>2109.8525390625</v>
+        <v>1880.662231445312</v>
       </c>
       <c r="FI4" t="n">
-        <v>2153.9384765625</v>
+        <v>1871.3037109375</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2178.51171875</v>
+        <v>1834.60693359375</v>
       </c>
       <c r="FK4" t="n">
-        <v>2228.6728515625</v>
+        <v>1798.276611328125</v>
       </c>
       <c r="FL4" t="n">
-        <v>2243.96142578125</v>
+        <v>1779.852783203125</v>
       </c>
       <c r="FM4" t="n">
-        <v>2261.044921875</v>
+        <v>1760.962890625</v>
       </c>
       <c r="FN4" t="n">
-        <v>2270.68359375</v>
+        <v>1753.355834960938</v>
       </c>
       <c r="FO4" t="n">
-        <v>2283.516845703125</v>
+        <v>1727.5478515625</v>
       </c>
       <c r="FP4" t="n">
-        <v>2312.3583984375</v>
+        <v>1690.941284179688</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2339.7138671875</v>
+        <v>1676.432861328125</v>
       </c>
       <c r="FR4" t="n">
-        <v>2374.356689453125</v>
+        <v>1655.680908203125</v>
       </c>
       <c r="FS4" t="n">
-        <v>2409.38330078125</v>
+        <v>1645.166748046875</v>
       </c>
       <c r="FT4" t="n">
-        <v>2433.193115234375</v>
+        <v>1608.811279296875</v>
       </c>
       <c r="FU4" t="n">
-        <v>2440.715087890625</v>
+        <v>1567.217163085938</v>
       </c>
       <c r="FV4" t="n">
-        <v>2449.270263671875</v>
+        <v>1542.571899414062</v>
       </c>
       <c r="FW4" t="n">
-        <v>2458.287109375</v>
+        <v>1484.387329101562</v>
       </c>
       <c r="FX4" t="n">
-        <v>2460.879638671875</v>
+        <v>1464.04541015625</v>
       </c>
       <c r="FY4" t="n">
-        <v>2460.90771484375</v>
+        <v>1441.921997070312</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2463.327392578125</v>
+        <v>1429.440307617188</v>
       </c>
       <c r="GA4" t="n">
-        <v>2464.73486328125</v>
+        <v>1389.3525390625</v>
       </c>
       <c r="GB4" t="n">
-        <v>2470.1103515625</v>
+        <v>1370.285766601562</v>
       </c>
       <c r="GC4" t="n">
-        <v>2473.6572265625</v>
+        <v>1348.4169921875</v>
       </c>
       <c r="GD4" t="n">
-        <v>2481.852783203125</v>
+        <v>1340.151977539062</v>
       </c>
       <c r="GE4" t="n">
-        <v>2482.697509765625</v>
+        <v>1318.126831054688</v>
       </c>
       <c r="GF4" t="n">
-        <v>2483.87451171875</v>
+        <v>1294.47119140625</v>
       </c>
       <c r="GG4" t="n">
-        <v>2478.9033203125</v>
+        <v>1280.507446289062</v>
       </c>
       <c r="GH4" t="n">
-        <v>2470.538818359375</v>
+        <v>1250.442504882812</v>
       </c>
       <c r="GI4" t="n">
-        <v>2465.955322265625</v>
+        <v>1226.906005859375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2463.73486328125</v>
+        <v>1213.984619140625</v>
       </c>
       <c r="GK4" t="n">
-        <v>2460.03173828125</v>
+        <v>1183.528686523438</v>
       </c>
       <c r="GL4" t="n">
-        <v>2458.6337890625</v>
+        <v>1155.57763671875</v>
       </c>
       <c r="GM4" t="n">
-        <v>2456.288818359375</v>
+        <v>1121.17333984375</v>
       </c>
       <c r="GN4" t="n">
-        <v>2457.20849609375</v>
+        <v>1103.246337890625</v>
       </c>
       <c r="GO4" t="n">
-        <v>2462.794921875</v>
+        <v>1058.35595703125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2460.33154296875</v>
+        <v>1018.770812988281</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2449.956787109375</v>
+        <v>1000.175231933594</v>
       </c>
       <c r="GR4" t="n">
-        <v>2441.739501953125</v>
+        <v>960.9992065429688</v>
       </c>
       <c r="GS4" t="n">
-        <v>2438.679443359375</v>
+        <v>940.0115966796875</v>
       </c>
       <c r="GT4" t="n">
-        <v>2435.09814453125</v>
+        <v>918.83349609375</v>
       </c>
       <c r="GU4" t="n">
-        <v>2431.6376953125</v>
+        <v>881.5026245117188</v>
       </c>
       <c r="GV4" t="n">
-        <v>2435.337646484375</v>
+        <v>844.37158203125</v>
       </c>
       <c r="GW4" t="n">
-        <v>2435.421142578125</v>
+        <v>812.9718627929688</v>
       </c>
       <c r="GX4" t="n">
-        <v>2429.994140625</v>
+        <v>784.824951171875</v>
       </c>
       <c r="GY4" t="n">
-        <v>2421.689697265625</v>
+        <v>751.2102661132812</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2412.31640625</v>
+        <v>706.3460693359375</v>
       </c>
       <c r="HA4" t="n">
-        <v>2408.066650390625</v>
+        <v>669.714599609375</v>
       </c>
       <c r="HB4" t="n">
-        <v>2410.20703125</v>
+        <v>650.5657348632812</v>
       </c>
       <c r="HC4" t="n">
-        <v>2408.68505859375</v>
+        <v>644.5469970703125</v>
       </c>
       <c r="HD4" t="n">
-        <v>2407.82373046875</v>
+        <v>633.4513549804688</v>
       </c>
       <c r="HE4" t="n">
-        <v>2416.994140625</v>
+        <v>616.388427734375</v>
       </c>
       <c r="HF4" t="n">
-        <v>2408.39306640625</v>
+        <v>599.6220092773438</v>
       </c>
       <c r="HG4" t="n">
-        <v>2396.670654296875</v>
+        <v>592.7401733398438</v>
       </c>
       <c r="HH4" t="n">
-        <v>2406.6123046875</v>
+        <v>592.5074462890625</v>
       </c>
       <c r="HI4" t="n">
-        <v>2407.0283203125</v>
+        <v>594.115478515625</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2412.3701171875</v>
+        <v>597.5780029296875</v>
       </c>
       <c r="HK4" t="n">
-        <v>2408.015625</v>
+        <v>629.2550659179688</v>
       </c>
       <c r="HL4" t="n">
-        <v>2368.43505859375</v>
+        <v>640.0648803710938</v>
       </c>
       <c r="HM4" t="n">
-        <v>2358.501220703125</v>
+        <v>611.4619140625</v>
       </c>
       <c r="HN4" t="n">
-        <v>2354.69580078125</v>
+        <v>551.5179443359375</v>
       </c>
       <c r="HO4" t="n">
-        <v>2341.724853515625</v>
+        <v>516.142822265625</v>
       </c>
       <c r="HP4" t="n">
-        <v>2333.35693359375</v>
+        <v>503.433349609375</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2325.951904296875</v>
+        <v>497.0787353515625</v>
       </c>
       <c r="HR4" t="n">
-        <v>2308.8251953125</v>
+        <v>494.9771118164062</v>
       </c>
       <c r="HS4" t="n">
-        <v>2296.979736328125</v>
+        <v>488.8672180175781</v>
       </c>
       <c r="HT4" t="n">
-        <v>2288.67578125</v>
+        <v>486.8345336914062</v>
       </c>
       <c r="HU4" t="n">
-        <v>2282.602783203125</v>
+        <v>503.9143981933594</v>
       </c>
       <c r="HV4" t="n">
-        <v>2273.932373046875</v>
+        <v>553.3841552734375</v>
       </c>
       <c r="HW4" t="n">
-        <v>2270.976318359375</v>
+        <v>613.9991455078125</v>
       </c>
       <c r="HX4" t="n">
-        <v>2269.695068359375</v>
+        <v>669.2788696289062</v>
       </c>
       <c r="HY4" t="n">
-        <v>2269.630126953125</v>
+        <v>732.8770751953125</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2269.842529296875</v>
+        <v>797.8280029296875</v>
       </c>
       <c r="IA4" t="n">
-        <v>2270.2861328125</v>
+        <v>851.5830078125</v>
       </c>
       <c r="IB4" t="n">
-        <v>2270.589111328125</v>
+        <v>887.18212890625</v>
       </c>
       <c r="IC4" t="n">
-        <v>2271.90234375</v>
+        <v>930.9712524414062</v>
       </c>
       <c r="ID4" t="n">
-        <v>2273.279541015625</v>
+        <v>963.6109008789062</v>
       </c>
       <c r="IE4" t="n">
-        <v>2271.939453125</v>
+        <v>983.9545288085938</v>
       </c>
       <c r="IF4" t="n">
-        <v>2272.556396484375</v>
+        <v>1017.553955078125</v>
       </c>
       <c r="IG4" t="n">
-        <v>2281.16015625</v>
+        <v>1022.626708984375</v>
       </c>
       <c r="IH4" t="n">
-        <v>2282.748779296875</v>
+        <v>1022.481262207031</v>
       </c>
       <c r="II4" t="n">
-        <v>2289.2958984375</v>
+        <v>1005.837707519531</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2296.733154296875</v>
+        <v>975.0250244140625</v>
       </c>
       <c r="IK4" t="n">
-        <v>2311.5712890625</v>
+        <v>941.1456909179688</v>
       </c>
       <c r="IL4" t="n">
-        <v>2313.87353515625</v>
+        <v>902.7525634765625</v>
       </c>
       <c r="IM4" t="n">
-        <v>2324.906982421875</v>
+        <v>867.84375</v>
       </c>
       <c r="IN4" t="n">
-        <v>2351.7216796875</v>
+        <v>802.3301391601562</v>
       </c>
       <c r="IO4" t="n">
-        <v>2356.0849609375</v>
+        <v>761.0073852539062</v>
       </c>
       <c r="IP4" t="n">
-        <v>2356.44580078125</v>
+        <v>737.9013671875</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2358.21533203125</v>
+        <v>699.4108276367188</v>
       </c>
       <c r="IR4" t="n">
-        <v>2371.64794921875</v>
+        <v>689.9984741210938</v>
       </c>
       <c r="IS4" t="n">
-        <v>2379.778076171875</v>
+        <v>681.0504150390625</v>
       </c>
       <c r="IT4" t="n">
-        <v>2383.55712890625</v>
+        <v>677.490234375</v>
       </c>
       <c r="IU4" t="n">
-        <v>2391.83349609375</v>
+        <v>677.2740478515625</v>
       </c>
       <c r="IV4" t="n">
-        <v>2403.724609375</v>
+        <v>678.28173828125</v>
       </c>
       <c r="IW4" t="n">
-        <v>2411.19189453125</v>
+        <v>676.2559814453125</v>
       </c>
       <c r="IX4" t="n">
-        <v>2410.876220703125</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>2409.441650390625</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>2408.22998046875</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>2404.4931640625</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>2395.091552734375</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>2384.405029296875</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>2382.23388671875</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>2372.37646484375</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>2354.611083984375</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>2334.72998046875</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>2328.626220703125</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>2325.762939453125</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>2322.75439453125</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>2322.21875</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>2311.37060546875</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>2307.084716796875</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>2304.7919921875</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2303.170166015625</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2300.500732421875</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2296.214599609375</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>2284.90869140625</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2273.001708984375</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>2273.99609375</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>2273.771240234375</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>2274.209228515625</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>2274.355712890625</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>2273.268798828125</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>2270.984619140625</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>2269.35986328125</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>2267.73193359375</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>2265.716796875</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>2263.68212890625</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>2263.045166015625</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>2265.8505859375</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>2273.77001953125</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>2274.3720703125</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>2276.91845703125</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>2278.5263671875</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>2279.438720703125</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>2279.117431640625</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>2278.887451171875</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>2278.640380859375</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>2278.49462890625</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>2279.066162109375</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>2279.851806640625</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>2281.171142578125</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2281.197509765625</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2281.293212890625</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2281.202392578125</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2281.136962890625</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2281.1865234375</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2281.189208984375</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2281.175048828125</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2279.556396484375</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>2273.0830078125</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>2270.87451171875</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>2261.549560546875</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>2246.02880859375</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>2214.290283203125</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>2188.654052734375</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>2115.96337890625</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>2065.706298828125</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>2040.986083984375</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1962.951171875</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1857.787719726562</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1771.923583984375</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1711.970092773438</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1652.46240234375</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1591.26953125</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1538.4541015625</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1461.256225585938</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1366.898071289062</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1289.918212890625</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>1211.428833007812</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>1082.964599609375</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>1018.093627929688</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>966.4595336914062</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>930.1832885742188</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>906.0347900390625</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>881.5289306640625</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>850.9142456054688</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>840.847900390625</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>830.2095336914062</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>822.2314453125</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>815.1939697265625</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>792.480224609375</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>757.8319702148438</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>698.927490234375</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>693.9478149414062</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>693.4559936523438</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>729.7667236328125</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>784.8663330078125</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>821.8345336914062</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>860.8853759765625</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>880.2576904296875</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>900.3143920898438</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>914.5079956054688</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>914.4534301757812</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>886.6705322265625</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>867.0448608398438</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>831.1453247070312</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>795.3350219726562</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>789.7208862304688</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>773.9094848632812</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>753.5204467773438</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>750.0595703125</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>743.1693115234375</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>734.7994995117188</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>734.6948852539062</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>751.66015625</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>774.6619873046875</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>781.217529296875</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>791.4652099609375</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>807.245849609375</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>818.7225341796875</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>823.9813842773438</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>824.9304809570312</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>824.2682495117188</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>818.9970703125</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>808.2262573242188</v>
+        <v>683.0741577148438</v>
       </c>
     </row>
   </sheetData>
